--- a/CEOs - data .xlsx
+++ b/CEOs - data .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://awqafinv-my.sharepoint.com/personal/salshehri_awqaf_com_sa/Documents/منشورات/CEOss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_F3885B9803C23B35D8AA5315CE8E9C75F7ABBA22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{243C63B6-4D15-42CE-8BA7-125B99FD49ED}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_F3885B9803C23B35D8AA5315CE8E9C75F7ABBA22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5B1F46E-9AB6-405B-84CE-F3BDC762B723}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$130</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="460">
   <si>
     <t>الرئيس التنفيذي</t>
   </si>
@@ -176,9 +179,6 @@
   </si>
   <si>
     <t>ايمن الفلاج</t>
-  </si>
-  <si>
-    <t>جامعة بريطانية</t>
   </si>
   <si>
     <t>بريطانيا</t>
@@ -1743,13 +1743,13 @@
   <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+      <selection activeCell="L6" sqref="L6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.265625" style="2"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.73046875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="18.265625" style="2"/>
     <col min="9" max="9" width="16.06640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28" style="2" bestFit="1" customWidth="1"/>
@@ -1882,7 +1882,7 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
@@ -1923,7 +1923,7 @@
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D5" t="s">
         <v>45</v>
@@ -1962,7 +1962,7 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
@@ -1970,11 +1970,9 @@
       <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6"/>
+      <c r="G6" t="s">
         <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
@@ -1991,20 +1989,22 @@
       <c r="L6" t="s">
         <v>42</v>
       </c>
-      <c r="M6"/>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -2034,19 +2034,19 @@
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
         <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -2067,25 +2067,25 @@
         <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M8"/>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
         <v>59</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
       </c>
       <c r="F9" t="s">
         <v>33</v>
@@ -2106,24 +2106,24 @@
         <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -2147,33 +2147,33 @@
         <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
         <v>65</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
         <v>66</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>67</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
@@ -2188,10 +2188,10 @@
         <v>20</v>
       </c>
       <c r="L11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" t="s">
         <v>68</v>
-      </c>
-      <c r="M11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
@@ -2202,10 +2202,10 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -2229,7 +2229,7 @@
         <v>20</v>
       </c>
       <c r="L12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M12" t="s">
         <v>43</v>
@@ -2237,16 +2237,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D13" t="s">
         <v>73</v>
-      </c>
-      <c r="C13" t="s">
-        <v>348</v>
-      </c>
-      <c r="D13" t="s">
-        <v>74</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
@@ -2278,16 +2278,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D14" t="s">
         <v>75</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>348</v>
-      </c>
-      <c r="D14" t="s">
-        <v>76</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -2311,27 +2311,27 @@
         <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
@@ -2352,15 +2352,15 @@
         <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -2369,7 +2369,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -2393,15 +2393,15 @@
         <v>20</v>
       </c>
       <c r="L16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -2410,16 +2410,16 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
         <v>23</v>
       </c>
       <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
         <v>86</v>
-      </c>
-      <c r="G17" t="s">
-        <v>87</v>
       </c>
       <c r="H17" t="s">
         <v>24</v>
@@ -2437,21 +2437,21 @@
         <v>15</v>
       </c>
       <c r="M17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
@@ -2475,33 +2475,33 @@
         <v>20</v>
       </c>
       <c r="L18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" t="s">
         <v>91</v>
-      </c>
-      <c r="M18" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
         <v>94</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s">
         <v>21</v>
@@ -2516,24 +2516,24 @@
         <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
         <v>98</v>
-      </c>
-      <c r="D20" t="s">
-        <v>99</v>
       </c>
       <c r="E20" t="s">
         <v>41</v>
@@ -2557,7 +2557,7 @@
         <v>20</v>
       </c>
       <c r="L20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M20" t="s">
         <v>43</v>
@@ -2565,19 +2565,19 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
         <v>102</v>
-      </c>
-      <c r="E21" t="s">
-        <v>103</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2601,21 +2601,21 @@
         <v>43</v>
       </c>
       <c r="M21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
@@ -2639,33 +2639,33 @@
         <v>20</v>
       </c>
       <c r="L22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" t="s">
         <v>108</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>109</v>
       </c>
-      <c r="F23" t="s">
-        <v>110</v>
-      </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
         <v>24</v>
@@ -2680,27 +2680,27 @@
         <v>20</v>
       </c>
       <c r="L23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" t="s">
         <v>112</v>
       </c>
-      <c r="D24" t="s">
-        <v>113</v>
-      </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -2721,27 +2721,27 @@
         <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" t="s">
         <v>116</v>
-      </c>
-      <c r="E25" t="s">
-        <v>117</v>
       </c>
       <c r="F25" t="s">
         <v>33</v>
@@ -2762,27 +2762,27 @@
         <v>20</v>
       </c>
       <c r="L25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" t="s">
         <v>120</v>
-      </c>
-      <c r="E26" t="s">
-        <v>121</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -2803,24 +2803,24 @@
         <v>20</v>
       </c>
       <c r="L26" t="s">
+        <v>121</v>
+      </c>
+      <c r="M26" t="s">
         <v>122</v>
-      </c>
-      <c r="M26" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
         <v>32</v>
@@ -2844,24 +2844,24 @@
         <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
         <v>41</v>
@@ -2885,30 +2885,30 @@
         <v>22</v>
       </c>
       <c r="L28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" t="s">
         <v>130</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>131</v>
-      </c>
-      <c r="F29" t="s">
-        <v>132</v>
       </c>
       <c r="G29" t="s">
         <v>26</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -2943,13 +2943,13 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" t="s">
         <v>134</v>
-      </c>
-      <c r="E30" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" t="s">
-        <v>135</v>
       </c>
       <c r="G30" t="s">
         <v>26</v>
@@ -2967,24 +2967,24 @@
         <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
         <v>46</v>
@@ -3008,7 +3008,7 @@
         <v>22</v>
       </c>
       <c r="L31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M31" t="s">
         <v>43</v>
@@ -3016,19 +3016,19 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
         <v>33</v>
@@ -3049,33 +3049,33 @@
         <v>22</v>
       </c>
       <c r="L32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
       </c>
       <c r="C33" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" t="s">
         <v>142</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>143</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>144</v>
       </c>
-      <c r="F33" t="s">
-        <v>145</v>
-      </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s">
         <v>24</v>
@@ -3090,24 +3090,24 @@
         <v>20</v>
       </c>
       <c r="L33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
       </c>
       <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" t="s">
         <v>148</v>
-      </c>
-      <c r="D34" t="s">
-        <v>149</v>
       </c>
       <c r="E34" t="s">
         <v>25</v>
@@ -3129,16 +3129,16 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E35" t="s">
         <v>25</v>
@@ -3162,24 +3162,24 @@
         <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E36" t="s">
         <v>25</v>
@@ -3203,24 +3203,24 @@
         <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
         <v>25</v>
@@ -3244,30 +3244,30 @@
         <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D38" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" t="s">
         <v>158</v>
-      </c>
-      <c r="E38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" t="s">
-        <v>159</v>
       </c>
       <c r="G38" t="s">
         <v>26</v>
@@ -3285,27 +3285,27 @@
         <v>22</v>
       </c>
       <c r="L38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" t="s">
+        <v>352</v>
+      </c>
+      <c r="C39" t="s">
+        <v>351</v>
+      </c>
+      <c r="D39" t="s">
         <v>161</v>
       </c>
-      <c r="B39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" t="s">
-        <v>352</v>
-      </c>
-      <c r="D39" t="s">
-        <v>162</v>
-      </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -3326,30 +3326,30 @@
         <v>22</v>
       </c>
       <c r="L39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
       </c>
       <c r="C40" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" t="s">
         <v>165</v>
-      </c>
-      <c r="D40" t="s">
-        <v>166</v>
       </c>
       <c r="E40" t="s">
         <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G40" t="s">
         <v>26</v>
@@ -3365,24 +3365,24 @@
         <v>22</v>
       </c>
       <c r="L40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s">
         <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E41" t="s">
         <v>46</v>
@@ -3406,15 +3406,15 @@
         <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B42" t="s">
         <v>36</v>
@@ -3423,13 +3423,13 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E42" t="s">
         <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G42" t="s">
         <v>26</v>
@@ -3447,27 +3447,27 @@
         <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -3488,33 +3488,33 @@
         <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
         <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" t="s">
         <v>174</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>175</v>
       </c>
-      <c r="F44" t="s">
-        <v>176</v>
-      </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s">
         <v>24</v>
@@ -3529,15 +3529,15 @@
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
@@ -3546,13 +3546,13 @@
         <v>30</v>
       </c>
       <c r="D45" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" t="s">
         <v>178</v>
-      </c>
-      <c r="E45" t="s">
-        <v>103</v>
-      </c>
-      <c r="F45" t="s">
-        <v>179</v>
       </c>
       <c r="G45" t="s">
         <v>26</v>
@@ -3570,27 +3570,27 @@
         <v>22</v>
       </c>
       <c r="L45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B46" t="s">
         <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D46" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" t="s">
         <v>181</v>
-      </c>
-      <c r="E46" t="s">
-        <v>182</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -3611,30 +3611,30 @@
         <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G47" t="s">
         <v>26</v>
@@ -3652,27 +3652,27 @@
         <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" t="s">
+        <v>352</v>
+      </c>
+      <c r="C48" t="s">
+        <v>350</v>
+      </c>
+      <c r="D48" t="s">
         <v>186</v>
       </c>
-      <c r="B48" t="s">
-        <v>353</v>
-      </c>
-      <c r="C48" t="s">
-        <v>351</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>187</v>
-      </c>
-      <c r="E48" t="s">
-        <v>188</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -3693,27 +3693,27 @@
         <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" t="s">
         <v>189</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>353</v>
+      </c>
+      <c r="D49" t="s">
         <v>190</v>
       </c>
-      <c r="C49" t="s">
-        <v>354</v>
-      </c>
-      <c r="D49" t="s">
-        <v>191</v>
-      </c>
       <c r="E49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -3734,27 +3734,27 @@
         <v>20</v>
       </c>
       <c r="L49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" t="s">
+        <v>353</v>
+      </c>
+      <c r="D50" t="s">
         <v>193</v>
       </c>
-      <c r="B50" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" t="s">
-        <v>354</v>
-      </c>
-      <c r="D50" t="s">
-        <v>194</v>
-      </c>
       <c r="E50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -3775,30 +3775,30 @@
         <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" t="s">
+        <v>353</v>
+      </c>
+      <c r="D51" t="s">
         <v>195</v>
       </c>
-      <c r="B51" t="s">
-        <v>190</v>
-      </c>
-      <c r="C51" t="s">
-        <v>354</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>196</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>197</v>
-      </c>
-      <c r="F51" t="s">
-        <v>198</v>
       </c>
       <c r="G51" t="s">
         <v>26</v>
@@ -3816,24 +3816,24 @@
         <v>22</v>
       </c>
       <c r="L51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" t="s">
+        <v>353</v>
+      </c>
+      <c r="D52" t="s">
         <v>200</v>
-      </c>
-      <c r="B52" t="s">
-        <v>190</v>
-      </c>
-      <c r="C52" t="s">
-        <v>354</v>
-      </c>
-      <c r="D52" t="s">
-        <v>201</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -3857,30 +3857,30 @@
         <v>22</v>
       </c>
       <c r="L52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" t="s">
+        <v>353</v>
+      </c>
+      <c r="D53" t="s">
         <v>203</v>
       </c>
-      <c r="B53" t="s">
-        <v>190</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>354</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>204</v>
-      </c>
-      <c r="E53" t="s">
-        <v>355</v>
-      </c>
-      <c r="F53" t="s">
-        <v>205</v>
       </c>
       <c r="G53" t="s">
         <v>26</v>
@@ -3898,24 +3898,24 @@
         <v>22</v>
       </c>
       <c r="L53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
+        <v>206</v>
+      </c>
+      <c r="B54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" t="s">
+        <v>353</v>
+      </c>
+      <c r="D54" t="s">
         <v>207</v>
-      </c>
-      <c r="B54" t="s">
-        <v>190</v>
-      </c>
-      <c r="C54" t="s">
-        <v>354</v>
-      </c>
-      <c r="D54" t="s">
-        <v>208</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
@@ -3939,27 +3939,27 @@
         <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" t="s">
+        <v>189</v>
+      </c>
+      <c r="C55" t="s">
+        <v>353</v>
+      </c>
+      <c r="D55" t="s">
         <v>210</v>
       </c>
-      <c r="B55" t="s">
-        <v>190</v>
-      </c>
-      <c r="C55" t="s">
-        <v>354</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>211</v>
-      </c>
-      <c r="E55" t="s">
-        <v>212</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -3980,30 +3980,30 @@
         <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
+        <v>212</v>
+      </c>
+      <c r="B56" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" t="s">
+        <v>353</v>
+      </c>
+      <c r="D56" t="s">
         <v>213</v>
-      </c>
-      <c r="B56" t="s">
-        <v>190</v>
-      </c>
-      <c r="C56" t="s">
-        <v>354</v>
-      </c>
-      <c r="D56" t="s">
-        <v>214</v>
       </c>
       <c r="E56" t="s">
         <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G56" t="s">
         <v>26</v>
@@ -4025,16 +4025,16 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
+        <v>215</v>
+      </c>
+      <c r="B57" t="s">
+        <v>352</v>
+      </c>
+      <c r="C57" t="s">
+        <v>347</v>
+      </c>
+      <c r="D57" t="s">
         <v>216</v>
-      </c>
-      <c r="B57" t="s">
-        <v>353</v>
-      </c>
-      <c r="C57" t="s">
-        <v>348</v>
-      </c>
-      <c r="D57" t="s">
-        <v>217</v>
       </c>
       <c r="E57" t="s">
         <v>46</v>
@@ -4061,30 +4061,30 @@
         <v>43</v>
       </c>
       <c r="M57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B58" t="s">
         <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D58" t="s">
+        <v>218</v>
+      </c>
+      <c r="E58" t="s">
         <v>219</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>220</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>221</v>
-      </c>
-      <c r="G58" t="s">
-        <v>222</v>
       </c>
       <c r="H58" t="s">
         <v>21</v>
@@ -4099,24 +4099,24 @@
         <v>22</v>
       </c>
       <c r="L58" t="s">
+        <v>222</v>
+      </c>
+      <c r="M58" t="s">
         <v>223</v>
-      </c>
-      <c r="M58" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
+        <v>224</v>
+      </c>
+      <c r="B59" t="s">
         <v>225</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>226</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>227</v>
-      </c>
-      <c r="D59" t="s">
-        <v>228</v>
       </c>
       <c r="E59" t="s">
         <v>32</v>
@@ -4140,24 +4140,24 @@
         <v>22</v>
       </c>
       <c r="L59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B60" t="s">
         <v>29</v>
       </c>
       <c r="C60" t="s">
+        <v>229</v>
+      </c>
+      <c r="D60" t="s">
         <v>230</v>
-      </c>
-      <c r="D60" t="s">
-        <v>231</v>
       </c>
       <c r="E60" t="s">
         <v>23</v>
@@ -4181,27 +4181,27 @@
         <v>22</v>
       </c>
       <c r="L60" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B61" t="s">
         <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -4223,12 +4223,12 @@
       </c>
       <c r="L61"/>
       <c r="M61" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B62" t="s">
         <v>36</v>
@@ -4237,10 +4237,10 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -4269,19 +4269,19 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B63" t="s">
         <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -4302,33 +4302,33 @@
         <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B64" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C64" t="s">
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s">
         <v>21</v>
@@ -4343,33 +4343,33 @@
         <v>20</v>
       </c>
       <c r="L64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B65" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C65" t="s">
         <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E65" t="s">
         <v>23</v>
       </c>
       <c r="F65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s">
         <v>21</v>
@@ -4384,30 +4384,30 @@
         <v>22</v>
       </c>
       <c r="L65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B66" t="s">
         <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D66" t="s">
+        <v>246</v>
+      </c>
+      <c r="E66" t="s">
+        <v>181</v>
+      </c>
+      <c r="F66" t="s">
         <v>247</v>
-      </c>
-      <c r="E66" t="s">
-        <v>182</v>
-      </c>
-      <c r="F66" t="s">
-        <v>248</v>
       </c>
       <c r="G66" t="s">
         <v>26</v>
@@ -4425,7 +4425,7 @@
         <v>22</v>
       </c>
       <c r="L66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M66" t="s">
         <v>43</v>
@@ -4433,19 +4433,19 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B67" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C67" t="s">
         <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -4470,19 +4470,19 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" t="s">
+        <v>353</v>
+      </c>
+      <c r="D68" t="s">
         <v>251</v>
       </c>
-      <c r="B68" t="s">
-        <v>190</v>
-      </c>
-      <c r="C68" t="s">
-        <v>354</v>
-      </c>
-      <c r="D68" t="s">
-        <v>252</v>
-      </c>
       <c r="E68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -4503,33 +4503,33 @@
         <v>22</v>
       </c>
       <c r="L68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M68" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
+        <v>253</v>
+      </c>
+      <c r="B69" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" t="s">
+        <v>353</v>
+      </c>
+      <c r="D69" t="s">
         <v>254</v>
       </c>
-      <c r="B69" t="s">
-        <v>190</v>
-      </c>
-      <c r="C69" t="s">
-        <v>354</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
+        <v>181</v>
+      </c>
+      <c r="F69" t="s">
         <v>255</v>
       </c>
-      <c r="E69" t="s">
-        <v>182</v>
-      </c>
-      <c r="F69" t="s">
-        <v>256</v>
-      </c>
       <c r="G69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s">
         <v>24</v>
@@ -4545,30 +4545,30 @@
       </c>
       <c r="L69"/>
       <c r="M69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B70" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C70" t="s">
         <v>30</v>
       </c>
       <c r="D70" t="s">
+        <v>257</v>
+      </c>
+      <c r="E70" t="s">
+        <v>187</v>
+      </c>
+      <c r="F70" t="s">
         <v>258</v>
       </c>
-      <c r="E70" t="s">
-        <v>188</v>
-      </c>
-      <c r="F70" t="s">
-        <v>259</v>
-      </c>
       <c r="G70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H70" t="s">
         <v>21</v>
@@ -4584,21 +4584,21 @@
       </c>
       <c r="L70"/>
       <c r="M70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B71" t="s">
         <v>29</v>
       </c>
       <c r="C71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E71" t="s">
         <v>25</v>
@@ -4622,24 +4622,24 @@
         <v>22</v>
       </c>
       <c r="L71" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M71" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B72" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
@@ -4663,24 +4663,24 @@
         <v>20</v>
       </c>
       <c r="L72" t="s">
+        <v>265</v>
+      </c>
+      <c r="M72" t="s">
         <v>266</v>
-      </c>
-      <c r="M72" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B73" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C73" t="s">
         <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
@@ -4712,19 +4712,19 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B74" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C74" t="s">
         <v>30</v>
       </c>
       <c r="D74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E74" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F74" t="s">
         <v>33</v>
@@ -4745,24 +4745,24 @@
         <v>22</v>
       </c>
       <c r="L74" t="s">
+        <v>271</v>
+      </c>
+      <c r="M74" t="s">
         <v>272</v>
-      </c>
-      <c r="M74" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
+        <v>273</v>
+      </c>
+      <c r="B75" t="s">
+        <v>352</v>
+      </c>
+      <c r="C75" t="s">
         <v>274</v>
       </c>
-      <c r="B75" t="s">
-        <v>353</v>
-      </c>
-      <c r="C75" t="s">
-        <v>275</v>
-      </c>
       <c r="D75" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E75" t="s">
         <v>14</v>
@@ -4786,27 +4786,27 @@
         <v>22</v>
       </c>
       <c r="L75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
+        <v>275</v>
+      </c>
+      <c r="B76" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" t="s">
         <v>276</v>
       </c>
-      <c r="B76" t="s">
-        <v>226</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>277</v>
       </c>
-      <c r="D76" t="s">
-        <v>278</v>
-      </c>
       <c r="E76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F76" t="s">
         <v>33</v>
@@ -4827,33 +4827,33 @@
         <v>22</v>
       </c>
       <c r="L76" t="s">
+        <v>278</v>
+      </c>
+      <c r="M76" t="s">
         <v>279</v>
-      </c>
-      <c r="M76" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
+        <v>280</v>
+      </c>
+      <c r="B77" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" t="s">
+        <v>276</v>
+      </c>
+      <c r="D77" t="s">
         <v>281</v>
       </c>
-      <c r="B77" t="s">
-        <v>226</v>
-      </c>
-      <c r="C77" t="s">
-        <v>277</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>282</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>283</v>
       </c>
-      <c r="F77" t="s">
-        <v>284</v>
-      </c>
       <c r="G77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H77" t="s">
         <v>21</v>
@@ -4868,15 +4868,15 @@
         <v>20</v>
       </c>
       <c r="L77" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M77" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B78" t="s">
         <v>36</v>
@@ -4885,7 +4885,7 @@
         <v>30</v>
       </c>
       <c r="D78" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
@@ -4909,24 +4909,24 @@
         <v>22</v>
       </c>
       <c r="L78" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M78" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
+        <v>287</v>
+      </c>
+      <c r="B79" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" t="s">
+        <v>97</v>
+      </c>
+      <c r="D79" t="s">
         <v>288</v>
-      </c>
-      <c r="B79" t="s">
-        <v>226</v>
-      </c>
-      <c r="C79" t="s">
-        <v>98</v>
-      </c>
-      <c r="D79" t="s">
-        <v>289</v>
       </c>
       <c r="E79" t="s">
         <v>41</v>
@@ -4950,27 +4950,27 @@
         <v>22</v>
       </c>
       <c r="L79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
+        <v>289</v>
+      </c>
+      <c r="B80" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" t="s">
         <v>290</v>
       </c>
-      <c r="B80" t="s">
-        <v>226</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>291</v>
       </c>
-      <c r="D80" t="s">
-        <v>292</v>
-      </c>
       <c r="E80" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -4999,19 +4999,19 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
+        <v>292</v>
+      </c>
+      <c r="B81" t="s">
+        <v>225</v>
+      </c>
+      <c r="C81" t="s">
         <v>293</v>
       </c>
-      <c r="B81" t="s">
-        <v>226</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>294</v>
       </c>
-      <c r="D81" t="s">
-        <v>295</v>
-      </c>
       <c r="E81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -5032,33 +5032,33 @@
         <v>22</v>
       </c>
       <c r="L81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
+        <v>296</v>
+      </c>
+      <c r="B82" t="s">
+        <v>225</v>
+      </c>
+      <c r="C82" t="s">
+        <v>293</v>
+      </c>
+      <c r="D82" t="s">
         <v>297</v>
       </c>
-      <c r="B82" t="s">
-        <v>226</v>
-      </c>
-      <c r="C82" t="s">
-        <v>294</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
+        <v>120</v>
+      </c>
+      <c r="F82" t="s">
         <v>298</v>
       </c>
-      <c r="E82" t="s">
-        <v>121</v>
-      </c>
-      <c r="F82" t="s">
-        <v>299</v>
-      </c>
       <c r="G82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H82" t="s">
         <v>24</v>
@@ -5073,33 +5073,33 @@
         <v>22</v>
       </c>
       <c r="L82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M82" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
+        <v>300</v>
+      </c>
+      <c r="B83" t="s">
+        <v>225</v>
+      </c>
+      <c r="C83" t="s">
+        <v>293</v>
+      </c>
+      <c r="D83" t="s">
         <v>301</v>
-      </c>
-      <c r="B83" t="s">
-        <v>226</v>
-      </c>
-      <c r="C83" t="s">
-        <v>294</v>
-      </c>
-      <c r="D83" t="s">
-        <v>302</v>
       </c>
       <c r="E83" t="s">
         <v>23</v>
       </c>
       <c r="F83" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H83" t="s">
         <v>19</v>
@@ -5122,16 +5122,16 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
+        <v>303</v>
+      </c>
+      <c r="B84" t="s">
+        <v>225</v>
+      </c>
+      <c r="C84" t="s">
+        <v>293</v>
+      </c>
+      <c r="D84" t="s">
         <v>304</v>
-      </c>
-      <c r="B84" t="s">
-        <v>226</v>
-      </c>
-      <c r="C84" t="s">
-        <v>294</v>
-      </c>
-      <c r="D84" t="s">
-        <v>305</v>
       </c>
       <c r="E84" t="s">
         <v>27</v>
@@ -5155,27 +5155,27 @@
         <v>22</v>
       </c>
       <c r="L84" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
+        <v>306</v>
+      </c>
+      <c r="B85" t="s">
+        <v>225</v>
+      </c>
+      <c r="C85" t="s">
+        <v>315</v>
+      </c>
+      <c r="D85" t="s">
         <v>307</v>
       </c>
-      <c r="B85" t="s">
-        <v>226</v>
-      </c>
-      <c r="C85" t="s">
-        <v>316</v>
-      </c>
-      <c r="D85" t="s">
-        <v>308</v>
-      </c>
       <c r="E85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
@@ -5196,33 +5196,33 @@
         <v>20</v>
       </c>
       <c r="L85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
+        <v>308</v>
+      </c>
+      <c r="B86" t="s">
+        <v>225</v>
+      </c>
+      <c r="C86" t="s">
         <v>309</v>
       </c>
-      <c r="B86" t="s">
-        <v>226</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>310</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>311</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>312</v>
       </c>
-      <c r="F86" t="s">
-        <v>313</v>
-      </c>
       <c r="G86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H86" t="s">
         <v>24</v>
@@ -5237,27 +5237,27 @@
         <v>22</v>
       </c>
       <c r="L86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M86" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
+        <v>314</v>
+      </c>
+      <c r="B87" t="s">
+        <v>225</v>
+      </c>
+      <c r="C87" t="s">
         <v>315</v>
       </c>
-      <c r="B87" t="s">
-        <v>226</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>316</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>317</v>
-      </c>
-      <c r="E87" t="s">
-        <v>318</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -5278,27 +5278,27 @@
         <v>22</v>
       </c>
       <c r="L87" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M87" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
+        <v>319</v>
+      </c>
+      <c r="B88" t="s">
+        <v>225</v>
+      </c>
+      <c r="C88" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" t="s">
         <v>320</v>
       </c>
-      <c r="B88" t="s">
-        <v>226</v>
-      </c>
-      <c r="C88" t="s">
-        <v>98</v>
-      </c>
-      <c r="D88" t="s">
-        <v>321</v>
-      </c>
       <c r="E88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F88" t="s">
         <v>33</v>
@@ -5319,27 +5319,27 @@
         <v>22</v>
       </c>
       <c r="L88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
+        <v>321</v>
+      </c>
+      <c r="B89" t="s">
+        <v>225</v>
+      </c>
+      <c r="C89" t="s">
+        <v>226</v>
+      </c>
+      <c r="D89" t="s">
         <v>322</v>
       </c>
-      <c r="B89" t="s">
-        <v>226</v>
-      </c>
-      <c r="C89" t="s">
-        <v>227</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>323</v>
-      </c>
-      <c r="E89" t="s">
-        <v>324</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -5368,16 +5368,16 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
+        <v>324</v>
+      </c>
+      <c r="B90" t="s">
         <v>325</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>326</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>327</v>
-      </c>
-      <c r="D90" t="s">
-        <v>328</v>
       </c>
       <c r="E90" t="s">
         <v>41</v>
@@ -5401,27 +5401,27 @@
         <v>20</v>
       </c>
       <c r="L90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
+        <v>328</v>
+      </c>
+      <c r="B91" t="s">
+        <v>325</v>
+      </c>
+      <c r="C91" t="s">
+        <v>326</v>
+      </c>
+      <c r="D91" t="s">
         <v>329</v>
       </c>
-      <c r="B91" t="s">
-        <v>326</v>
-      </c>
-      <c r="C91" t="s">
-        <v>327</v>
-      </c>
-      <c r="D91" t="s">
-        <v>330</v>
-      </c>
       <c r="E91" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -5442,27 +5442,27 @@
         <v>22</v>
       </c>
       <c r="L91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
+        <v>330</v>
+      </c>
+      <c r="B92" t="s">
+        <v>325</v>
+      </c>
+      <c r="C92" t="s">
+        <v>326</v>
+      </c>
+      <c r="D92" t="s">
         <v>331</v>
       </c>
-      <c r="B92" t="s">
-        <v>326</v>
-      </c>
-      <c r="C92" t="s">
-        <v>327</v>
-      </c>
-      <c r="D92" t="s">
-        <v>332</v>
-      </c>
       <c r="E92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -5483,27 +5483,27 @@
         <v>22</v>
       </c>
       <c r="L92" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M92" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
+        <v>332</v>
+      </c>
+      <c r="B93" t="s">
+        <v>325</v>
+      </c>
+      <c r="C93" t="s">
+        <v>326</v>
+      </c>
+      <c r="D93" t="s">
         <v>333</v>
       </c>
-      <c r="B93" t="s">
-        <v>326</v>
-      </c>
-      <c r="C93" t="s">
-        <v>327</v>
-      </c>
-      <c r="D93" t="s">
-        <v>334</v>
-      </c>
       <c r="E93" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -5532,19 +5532,19 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
+        <v>334</v>
+      </c>
+      <c r="B94" t="s">
         <v>335</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
+        <v>226</v>
+      </c>
+      <c r="D94" t="s">
         <v>336</v>
       </c>
-      <c r="C94" t="s">
-        <v>227</v>
-      </c>
-      <c r="D94" t="s">
-        <v>337</v>
-      </c>
       <c r="E94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -5565,24 +5565,24 @@
         <v>22</v>
       </c>
       <c r="L94" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M94" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
+        <v>338</v>
+      </c>
+      <c r="B95" t="s">
+        <v>335</v>
+      </c>
+      <c r="C95" t="s">
+        <v>226</v>
+      </c>
+      <c r="D95" t="s">
         <v>339</v>
-      </c>
-      <c r="B95" t="s">
-        <v>336</v>
-      </c>
-      <c r="C95" t="s">
-        <v>227</v>
-      </c>
-      <c r="D95" t="s">
-        <v>340</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -5614,22 +5614,22 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
+        <v>340</v>
+      </c>
+      <c r="B96" t="s">
+        <v>335</v>
+      </c>
+      <c r="C96" t="s">
+        <v>226</v>
+      </c>
+      <c r="D96" t="s">
         <v>341</v>
       </c>
-      <c r="B96" t="s">
-        <v>336</v>
-      </c>
-      <c r="C96" t="s">
-        <v>227</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
+        <v>181</v>
+      </c>
+      <c r="F96" t="s">
         <v>342</v>
-      </c>
-      <c r="E96" t="s">
-        <v>182</v>
-      </c>
-      <c r="F96" t="s">
-        <v>343</v>
       </c>
       <c r="G96" t="s">
         <v>26</v>
@@ -5647,27 +5647,27 @@
         <v>22</v>
       </c>
       <c r="L96" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M96" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
+        <v>356</v>
+      </c>
+      <c r="B97" t="s">
+        <v>335</v>
+      </c>
+      <c r="C97" t="s">
         <v>357</v>
       </c>
-      <c r="B97" t="s">
-        <v>336</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>358</v>
       </c>
-      <c r="D97" t="s">
-        <v>359</v>
-      </c>
       <c r="E97" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -5696,25 +5696,25 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B98" t="s">
         <v>29</v>
       </c>
       <c r="C98" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D98" t="s">
+        <v>360</v>
+      </c>
+      <c r="E98" t="s">
+        <v>55</v>
+      </c>
+      <c r="F98" t="s">
         <v>361</v>
       </c>
-      <c r="E98" t="s">
-        <v>56</v>
-      </c>
-      <c r="F98" t="s">
-        <v>362</v>
-      </c>
       <c r="G98" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H98" t="s">
         <v>24</v>
@@ -5729,27 +5729,27 @@
         <v>22</v>
       </c>
       <c r="L98" t="s">
+        <v>362</v>
+      </c>
+      <c r="M98" t="s">
         <v>363</v>
-      </c>
-      <c r="M98" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
+        <v>364</v>
+      </c>
+      <c r="B99" t="s">
+        <v>352</v>
+      </c>
+      <c r="C99" t="s">
         <v>365</v>
       </c>
-      <c r="B99" t="s">
-        <v>353</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>366</v>
       </c>
-      <c r="D99" t="s">
-        <v>367</v>
-      </c>
       <c r="E99" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
         <v>33</v>
@@ -5778,19 +5778,19 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
+        <v>367</v>
+      </c>
+      <c r="B100" t="s">
+        <v>352</v>
+      </c>
+      <c r="C100" t="s">
+        <v>365</v>
+      </c>
+      <c r="D100" t="s">
         <v>368</v>
       </c>
-      <c r="B100" t="s">
-        <v>353</v>
-      </c>
-      <c r="C100" t="s">
-        <v>366</v>
-      </c>
-      <c r="D100" t="s">
-        <v>369</v>
-      </c>
       <c r="E100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -5811,33 +5811,33 @@
         <v>22</v>
       </c>
       <c r="L100" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M100" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
+        <v>369</v>
+      </c>
+      <c r="B101" t="s">
+        <v>352</v>
+      </c>
+      <c r="C101" t="s">
         <v>370</v>
       </c>
-      <c r="B101" t="s">
-        <v>353</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>371</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>372</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>373</v>
       </c>
-      <c r="F101" t="s">
-        <v>374</v>
-      </c>
       <c r="G101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H101" t="s">
         <v>24</v>
@@ -5852,27 +5852,27 @@
         <v>22</v>
       </c>
       <c r="L101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B102" t="s">
         <v>36</v>
       </c>
       <c r="C102" t="s">
+        <v>375</v>
+      </c>
+      <c r="D102" t="s">
         <v>376</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>377</v>
-      </c>
-      <c r="E102" t="s">
-        <v>378</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
@@ -5901,19 +5901,19 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B103" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C103" t="s">
         <v>30</v>
       </c>
       <c r="D103" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E103" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
@@ -5942,19 +5942,19 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
+        <v>380</v>
+      </c>
+      <c r="B104" t="s">
+        <v>352</v>
+      </c>
+      <c r="C104" t="s">
+        <v>351</v>
+      </c>
+      <c r="D104" t="s">
         <v>381</v>
       </c>
-      <c r="B104" t="s">
-        <v>353</v>
-      </c>
-      <c r="C104" t="s">
-        <v>352</v>
-      </c>
-      <c r="D104" t="s">
-        <v>382</v>
-      </c>
       <c r="E104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
@@ -5983,16 +5983,16 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B105" t="s">
         <v>36</v>
       </c>
       <c r="C105" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D105" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E105" t="s">
         <v>41</v>
@@ -6016,27 +6016,27 @@
         <v>22</v>
       </c>
       <c r="L105" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M105" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B106" t="s">
         <v>36</v>
       </c>
       <c r="C106" t="s">
+        <v>386</v>
+      </c>
+      <c r="D106" t="s">
         <v>387</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>388</v>
-      </c>
-      <c r="E106" t="s">
-        <v>389</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
@@ -6065,19 +6065,19 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
+        <v>389</v>
+      </c>
+      <c r="B107" t="s">
+        <v>335</v>
+      </c>
+      <c r="C107" t="s">
+        <v>357</v>
+      </c>
+      <c r="D107" t="s">
         <v>390</v>
       </c>
-      <c r="B107" t="s">
-        <v>336</v>
-      </c>
-      <c r="C107" t="s">
-        <v>358</v>
-      </c>
-      <c r="D107" t="s">
-        <v>391</v>
-      </c>
       <c r="E107" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
@@ -6098,24 +6098,24 @@
         <v>22</v>
       </c>
       <c r="L107" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B108" t="s">
         <v>36</v>
       </c>
       <c r="C108" t="s">
+        <v>393</v>
+      </c>
+      <c r="D108" t="s">
         <v>394</v>
-      </c>
-      <c r="D108" t="s">
-        <v>395</v>
       </c>
       <c r="E108" t="s">
         <v>27</v>
@@ -6142,12 +6142,12 @@
         <v>42</v>
       </c>
       <c r="M108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B109" t="s">
         <v>36</v>
@@ -6156,10 +6156,10 @@
         <v>30</v>
       </c>
       <c r="D109" t="s">
+        <v>396</v>
+      </c>
+      <c r="E109" t="s">
         <v>397</v>
-      </c>
-      <c r="E109" t="s">
-        <v>398</v>
       </c>
       <c r="F109" t="s">
         <v>33</v>
@@ -6180,27 +6180,27 @@
         <v>22</v>
       </c>
       <c r="L109" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B110" t="s">
         <v>36</v>
       </c>
       <c r="C110" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D110" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -6221,33 +6221,33 @@
         <v>22</v>
       </c>
       <c r="L110" t="s">
+        <v>400</v>
+      </c>
+      <c r="M110" t="s">
         <v>401</v>
-      </c>
-      <c r="M110" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B111" t="s">
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D111" t="s">
+        <v>403</v>
+      </c>
+      <c r="E111" t="s">
+        <v>59</v>
+      </c>
+      <c r="F111" t="s">
         <v>404</v>
       </c>
-      <c r="E111" t="s">
-        <v>60</v>
-      </c>
-      <c r="F111" t="s">
-        <v>405</v>
-      </c>
       <c r="G111" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H111" t="s">
         <v>21</v>
@@ -6262,15 +6262,15 @@
         <v>22</v>
       </c>
       <c r="L111" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M111" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B112" t="s">
         <v>36</v>
@@ -6279,7 +6279,7 @@
         <v>30</v>
       </c>
       <c r="D112" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
@@ -6303,27 +6303,27 @@
         <v>22</v>
       </c>
       <c r="L112" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M112" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B113" t="s">
         <v>36</v>
       </c>
       <c r="C113" t="s">
+        <v>408</v>
+      </c>
+      <c r="D113" t="s">
         <v>409</v>
       </c>
-      <c r="D113" t="s">
-        <v>410</v>
-      </c>
       <c r="E113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F113" t="s">
         <v>33</v>
@@ -6352,16 +6352,16 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B114" t="s">
         <v>36</v>
       </c>
       <c r="C114" t="s">
+        <v>411</v>
+      </c>
+      <c r="D114" t="s">
         <v>412</v>
-      </c>
-      <c r="D114" t="s">
-        <v>413</v>
       </c>
       <c r="E114" t="s">
         <v>46</v>
@@ -6385,33 +6385,33 @@
         <v>20</v>
       </c>
       <c r="L114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B115" t="s">
         <v>36</v>
       </c>
       <c r="C115" t="s">
+        <v>414</v>
+      </c>
+      <c r="D115" t="s">
         <v>415</v>
-      </c>
-      <c r="D115" t="s">
-        <v>416</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G115" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H115" t="s">
         <v>21</v>
@@ -6426,24 +6426,24 @@
         <v>22</v>
       </c>
       <c r="L115" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M115" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B116" t="s">
         <v>36</v>
       </c>
       <c r="C116" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D116" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -6475,16 +6475,16 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B117" t="s">
         <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D117" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E117" t="s">
         <v>25</v>
@@ -6508,33 +6508,33 @@
         <v>22</v>
       </c>
       <c r="L117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B118" t="s">
         <v>36</v>
       </c>
       <c r="C118" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D118" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G118" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H118" t="s">
         <v>24</v>
@@ -6557,19 +6557,19 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B119" t="s">
         <v>36</v>
       </c>
       <c r="C119" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D119" t="s">
+        <v>425</v>
+      </c>
+      <c r="E119" t="s">
         <v>426</v>
-      </c>
-      <c r="E119" t="s">
-        <v>427</v>
       </c>
       <c r="F119" t="s">
         <v>10</v>
@@ -6598,19 +6598,19 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B120" t="s">
         <v>36</v>
       </c>
       <c r="C120" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D120" t="s">
+        <v>428</v>
+      </c>
+      <c r="E120" t="s">
         <v>429</v>
-      </c>
-      <c r="E120" t="s">
-        <v>430</v>
       </c>
       <c r="F120" t="s">
         <v>33</v>
@@ -6631,33 +6631,33 @@
         <v>22</v>
       </c>
       <c r="L120" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B121" t="s">
         <v>36</v>
       </c>
       <c r="C121" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D121" t="s">
+        <v>432</v>
+      </c>
+      <c r="E121" t="s">
         <v>433</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>434</v>
       </c>
-      <c r="F121" t="s">
-        <v>435</v>
-      </c>
       <c r="G121" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H121" t="s">
         <v>21</v>
@@ -6672,33 +6672,33 @@
         <v>22</v>
       </c>
       <c r="L121" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M121" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B122" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C122" t="s">
         <v>30</v>
       </c>
       <c r="D122" t="s">
+        <v>437</v>
+      </c>
+      <c r="E122" t="s">
+        <v>181</v>
+      </c>
+      <c r="F122" t="s">
         <v>438</v>
       </c>
-      <c r="E122" t="s">
-        <v>182</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>439</v>
-      </c>
-      <c r="G122" t="s">
-        <v>440</v>
       </c>
       <c r="H122" t="s">
         <v>21</v>
@@ -6713,7 +6713,7 @@
         <v>22</v>
       </c>
       <c r="L122" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M122" t="s">
         <v>15</v>
@@ -6721,16 +6721,16 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B123" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C123" t="s">
         <v>30</v>
       </c>
       <c r="D123" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -6762,19 +6762,19 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B124" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C124" t="s">
         <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E124" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -6795,30 +6795,30 @@
         <v>22</v>
       </c>
       <c r="L124" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M124" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B125" t="s">
         <v>29</v>
       </c>
       <c r="C125" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D125" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E125" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F125" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G125" t="s">
         <v>26</v>
@@ -6836,33 +6836,33 @@
         <v>22</v>
       </c>
       <c r="L125" t="s">
+        <v>447</v>
+      </c>
+      <c r="M125" t="s">
         <v>448</v>
-      </c>
-      <c r="M125" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B126" t="s">
         <v>29</v>
       </c>
       <c r="C126" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D126" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
       </c>
       <c r="F126" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G126" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H126" t="s">
         <v>24</v>
@@ -6885,19 +6885,19 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B127" t="s">
         <v>36</v>
       </c>
       <c r="C127" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D127" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E127" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F127" t="s">
         <v>33</v>
@@ -6918,24 +6918,24 @@
         <v>22</v>
       </c>
       <c r="L127" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M127" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B128" t="s">
         <v>36</v>
       </c>
       <c r="C128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D128" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E128" t="s">
         <v>27</v>
@@ -6959,27 +6959,27 @@
         <v>22</v>
       </c>
       <c r="L128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M128" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B129" t="s">
         <v>29</v>
       </c>
       <c r="C129" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D129" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E129" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F129" t="s">
         <v>33</v>
@@ -7000,24 +7000,24 @@
         <v>22</v>
       </c>
       <c r="L129" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M129" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B130" t="s">
         <v>36</v>
       </c>
       <c r="C130" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D130" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E130" t="s">
         <v>27</v>
@@ -7041,13 +7041,14 @@
         <v>22</v>
       </c>
       <c r="L130" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M130" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B130" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="A19" r:id="rId1" tooltip="شركة الطائرات المروحية" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%B7%D8%A7%D8%A6%D8%B1%D8%A7%D8%AA_%D8%A7%D9%84%D9%85%D8%B1%D9%88%D8%AD%D9%8A%D8%A9" xr:uid="{B727B320-8566-4495-ABEA-7334C54D7D73}"/>
     <hyperlink ref="A20" r:id="rId2" tooltip="شركة المشاعر المقدسة" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D9%85%D8%B4%D8%A7%D8%B9%D8%B1_%D8%A7%D9%84%D9%85%D9%82%D8%AF%D8%B3%D8%A9" xr:uid="{A8D19EB9-8BE0-4647-BF79-E0C77B490612}"/>

--- a/CEOs - data .xlsx
+++ b/CEOs - data .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://awqafinv-my.sharepoint.com/personal/salshehri_awqaf_com_sa/Documents/منشورات/CEOss/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://awqafinv-my.sharepoint.com/personal/salshehri_awqaf_com_sa/Documents/منشورات/CEOss/CEOss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_F3885B9803C23B35D8AA5315CE8E9C75F7ABBA22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5B1F46E-9AB6-405B-84CE-F3BDC762B723}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_F3885B9803C23B35D8AA5315CE8E9C75F7ABBA22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA6428AC-1C9E-4124-BE75-8F707DB9C438}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$130</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$130</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="457">
   <si>
     <t>الرئيس التنفيذي</t>
   </si>
@@ -181,6 +181,9 @@
     <t>ايمن الفلاج</t>
   </si>
   <si>
+    <t>جامعة بريطانية</t>
+  </si>
+  <si>
     <t>بريطانيا</t>
   </si>
   <si>
@@ -196,9 +199,6 @@
     <t>ناصر الحقباني</t>
   </si>
   <si>
-    <t>إدارة</t>
-  </si>
-  <si>
     <t>مستشفى الحبيب</t>
   </si>
   <si>
@@ -277,9 +277,6 @@
     <t>زياد الشيحة</t>
   </si>
   <si>
-    <t>أرامكو</t>
-  </si>
-  <si>
     <t>سنابل</t>
   </si>
   <si>
@@ -379,9 +376,6 @@
     <t>فهد الجربوع</t>
   </si>
   <si>
-    <t>هندسة</t>
-  </si>
-  <si>
     <t>الخطوط السعودية</t>
   </si>
   <si>
@@ -692,9 +686,6 @@
   </si>
   <si>
     <t>جامعة لافيرن</t>
-  </si>
-  <si>
-    <t>أمريكا</t>
   </si>
   <si>
     <t>المعرفة للتعليم</t>
@@ -1743,13 +1734,13 @@
   <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:M6"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.73046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.265625" style="2"/>
+    <col min="2" max="2" width="23.73046875" style="2" customWidth="1"/>
     <col min="3" max="8" width="18.265625" style="2"/>
     <col min="9" max="9" width="16.06640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28" style="2" bestFit="1" customWidth="1"/>
@@ -1823,7 +1814,9 @@
       <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="I2"/>
+      <c r="I2">
+        <v>16</v>
+      </c>
       <c r="J2">
         <v>0</v>
       </c>
@@ -1882,7 +1875,7 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
@@ -1923,7 +1916,7 @@
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
         <v>45</v>
@@ -1962,7 +1955,7 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D6" t="s">
         <v>49</v>
@@ -1970,9 +1963,11 @@
       <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
@@ -1989,22 +1984,20 @@
       <c r="L6" t="s">
         <v>42</v>
       </c>
-      <c r="M6" t="s">
-        <v>42</v>
-      </c>
+      <c r="M6"/>
     </row>
     <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -2034,19 +2027,19 @@
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -2079,7 +2072,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D9" t="s">
         <v>58</v>
@@ -2120,7 +2113,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D10" t="s">
         <v>62</v>
@@ -2161,7 +2154,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D11" t="s">
         <v>64</v>
@@ -2202,7 +2195,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D12" t="s">
         <v>69</v>
@@ -2240,10 +2233,10 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D13" t="s">
         <v>73</v>
@@ -2281,10 +2274,10 @@
         <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D14" t="s">
         <v>75</v>
@@ -2325,7 +2318,7 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D15" t="s">
         <v>78</v>
@@ -2393,15 +2386,15 @@
         <v>20</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="M16" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -2410,16 +2403,16 @@
         <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
         <v>23</v>
       </c>
       <c r="F17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s">
         <v>85</v>
-      </c>
-      <c r="G17" t="s">
-        <v>86</v>
       </c>
       <c r="H17" t="s">
         <v>24</v>
@@ -2437,21 +2430,21 @@
         <v>15</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
         <v>32</v>
@@ -2475,33 +2468,33 @@
         <v>20</v>
       </c>
       <c r="L18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" t="s">
         <v>90</v>
-      </c>
-      <c r="M18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
         <v>93</v>
-      </c>
-      <c r="D19" t="s">
-        <v>94</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
         <v>21</v>
@@ -2524,16 +2517,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
         <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>98</v>
       </c>
       <c r="E20" t="s">
         <v>41</v>
@@ -2557,7 +2550,7 @@
         <v>20</v>
       </c>
       <c r="L20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M20" t="s">
         <v>43</v>
@@ -2565,19 +2558,19 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
         <v>101</v>
-      </c>
-      <c r="E21" t="s">
-        <v>102</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2606,16 +2599,16 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
@@ -2647,25 +2640,25 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
         <v>107</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>108</v>
       </c>
-      <c r="F23" t="s">
-        <v>109</v>
-      </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
         <v>24</v>
@@ -2688,19 +2681,19 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
         <v>111</v>
       </c>
-      <c r="D24" t="s">
-        <v>112</v>
-      </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -2721,27 +2714,27 @@
         <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
         <v>33</v>
@@ -2762,27 +2755,27 @@
         <v>20</v>
       </c>
       <c r="L25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -2803,24 +2796,24 @@
         <v>20</v>
       </c>
       <c r="L26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
         <v>32</v>
@@ -2844,24 +2837,24 @@
         <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
         <v>41</v>
@@ -2885,30 +2878,30 @@
         <v>22</v>
       </c>
       <c r="L28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" t="s">
         <v>129</v>
-      </c>
-      <c r="E29" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" t="s">
-        <v>131</v>
       </c>
       <c r="G29" t="s">
         <v>26</v>
@@ -2934,7 +2927,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
@@ -2943,13 +2936,13 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G30" t="s">
         <v>26</v>
@@ -2967,24 +2960,24 @@
         <v>22</v>
       </c>
       <c r="L30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
         <v>46</v>
@@ -3008,7 +3001,7 @@
         <v>22</v>
       </c>
       <c r="L31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M31" t="s">
         <v>43</v>
@@ -3016,19 +3009,19 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="F32" t="s">
         <v>33</v>
@@ -3057,25 +3050,25 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
       </c>
       <c r="C33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" t="s">
         <v>141</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" t="s">
         <v>142</v>
       </c>
-      <c r="E33" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" t="s">
-        <v>144</v>
-      </c>
       <c r="G33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s">
         <v>24</v>
@@ -3090,24 +3083,24 @@
         <v>20</v>
       </c>
       <c r="L33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E34" t="s">
         <v>25</v>
@@ -3129,16 +3122,16 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E35" t="s">
         <v>25</v>
@@ -3162,24 +3155,24 @@
         <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E36" t="s">
         <v>25</v>
@@ -3203,24 +3196,24 @@
         <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E37" t="s">
         <v>25</v>
@@ -3244,30 +3237,30 @@
         <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B38" t="s">
         <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s">
         <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G38" t="s">
         <v>26</v>
@@ -3285,27 +3278,27 @@
         <v>22</v>
       </c>
       <c r="L38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C39" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -3326,7 +3319,7 @@
         <v>22</v>
       </c>
       <c r="L39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M39" t="s">
         <v>60</v>
@@ -3334,27 +3327,29 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B40" t="s">
         <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E40" t="s">
         <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G40" t="s">
         <v>26</v>
       </c>
-      <c r="H40"/>
+      <c r="H40" t="s">
+        <v>21</v>
+      </c>
       <c r="I40">
         <v>37</v>
       </c>
@@ -3373,16 +3368,16 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
         <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E41" t="s">
         <v>46</v>
@@ -3406,15 +3401,15 @@
         <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M41" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B42" t="s">
         <v>36</v>
@@ -3423,13 +3418,13 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E42" t="s">
         <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G42" t="s">
         <v>26</v>
@@ -3447,10 +3442,10 @@
         <v>22</v>
       </c>
       <c r="L42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
@@ -3461,10 +3456,10 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E43" t="s">
         <v>59</v>
@@ -3496,25 +3491,25 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
         <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" t="s">
         <v>173</v>
       </c>
-      <c r="E44" t="s">
-        <v>174</v>
-      </c>
-      <c r="F44" t="s">
-        <v>175</v>
-      </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s">
         <v>24</v>
@@ -3529,15 +3524,15 @@
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
@@ -3546,13 +3541,13 @@
         <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G45" t="s">
         <v>26</v>
@@ -3570,27 +3565,27 @@
         <v>22</v>
       </c>
       <c r="L45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B46" t="s">
         <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E46" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -3611,30 +3606,30 @@
         <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G47" t="s">
         <v>26</v>
@@ -3660,19 +3655,19 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" t="s">
+        <v>349</v>
+      </c>
+      <c r="C48" t="s">
+        <v>347</v>
+      </c>
+      <c r="D48" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" t="s">
         <v>185</v>
-      </c>
-      <c r="B48" t="s">
-        <v>352</v>
-      </c>
-      <c r="C48" t="s">
-        <v>350</v>
-      </c>
-      <c r="D48" t="s">
-        <v>186</v>
-      </c>
-      <c r="E48" t="s">
-        <v>187</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -3701,19 +3696,19 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" t="s">
+        <v>350</v>
+      </c>
+      <c r="D49" t="s">
         <v>188</v>
       </c>
-      <c r="B49" t="s">
-        <v>189</v>
-      </c>
-      <c r="C49" t="s">
-        <v>353</v>
-      </c>
-      <c r="D49" t="s">
-        <v>190</v>
-      </c>
       <c r="E49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F49" t="s">
         <v>10</v>
@@ -3734,27 +3729,27 @@
         <v>20</v>
       </c>
       <c r="L49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C50" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D50" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E50" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -3775,30 +3770,30 @@
         <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M50" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B51" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" t="s">
+        <v>350</v>
+      </c>
+      <c r="D51" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" t="s">
         <v>194</v>
       </c>
-      <c r="B51" t="s">
-        <v>189</v>
-      </c>
-      <c r="C51" t="s">
-        <v>353</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
         <v>195</v>
-      </c>
-      <c r="E51" t="s">
-        <v>196</v>
-      </c>
-      <c r="F51" t="s">
-        <v>197</v>
       </c>
       <c r="G51" t="s">
         <v>26</v>
@@ -3816,24 +3811,24 @@
         <v>22</v>
       </c>
       <c r="L51" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M51" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C52" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D52" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -3857,30 +3852,30 @@
         <v>22</v>
       </c>
       <c r="L52" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M52" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" t="s">
+        <v>187</v>
+      </c>
+      <c r="C53" t="s">
+        <v>350</v>
+      </c>
+      <c r="D53" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" t="s">
+        <v>351</v>
+      </c>
+      <c r="F53" t="s">
         <v>202</v>
-      </c>
-      <c r="B53" t="s">
-        <v>189</v>
-      </c>
-      <c r="C53" t="s">
-        <v>353</v>
-      </c>
-      <c r="D53" t="s">
-        <v>203</v>
-      </c>
-      <c r="E53" t="s">
-        <v>354</v>
-      </c>
-      <c r="F53" t="s">
-        <v>204</v>
       </c>
       <c r="G53" t="s">
         <v>26</v>
@@ -3898,24 +3893,24 @@
         <v>22</v>
       </c>
       <c r="L53" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M53" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C54" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
@@ -3939,27 +3934,27 @@
         <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
+        <v>207</v>
+      </c>
+      <c r="B55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" t="s">
+        <v>350</v>
+      </c>
+      <c r="D55" t="s">
+        <v>208</v>
+      </c>
+      <c r="E55" t="s">
         <v>209</v>
-      </c>
-      <c r="B55" t="s">
-        <v>189</v>
-      </c>
-      <c r="C55" t="s">
-        <v>353</v>
-      </c>
-      <c r="D55" t="s">
-        <v>210</v>
-      </c>
-      <c r="E55" t="s">
-        <v>211</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -3980,30 +3975,30 @@
         <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C56" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D56" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E56" t="s">
         <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G56" t="s">
         <v>26</v>
@@ -4025,16 +4020,16 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B57" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C57" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E57" t="s">
         <v>46</v>
@@ -4061,30 +4056,30 @@
         <v>43</v>
       </c>
       <c r="M57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B58" t="s">
         <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D58" t="s">
+        <v>216</v>
+      </c>
+      <c r="E58" t="s">
+        <v>217</v>
+      </c>
+      <c r="F58" t="s">
         <v>218</v>
       </c>
-      <c r="E58" t="s">
-        <v>219</v>
-      </c>
-      <c r="F58" t="s">
-        <v>220</v>
-      </c>
       <c r="G58" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="H58" t="s">
         <v>21</v>
@@ -4099,24 +4094,24 @@
         <v>22</v>
       </c>
       <c r="L58" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M58" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
+        <v>221</v>
+      </c>
+      <c r="B59" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" t="s">
         <v>224</v>
-      </c>
-      <c r="B59" t="s">
-        <v>225</v>
-      </c>
-      <c r="C59" t="s">
-        <v>226</v>
-      </c>
-      <c r="D59" t="s">
-        <v>227</v>
       </c>
       <c r="E59" t="s">
         <v>32</v>
@@ -4148,16 +4143,16 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B60" t="s">
         <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E60" t="s">
         <v>23</v>
@@ -4181,27 +4176,27 @@
         <v>22</v>
       </c>
       <c r="L60" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B61" t="s">
         <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
@@ -4223,12 +4218,12 @@
       </c>
       <c r="L61"/>
       <c r="M61" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B62" t="s">
         <v>36</v>
@@ -4237,10 +4232,10 @@
         <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E62" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -4269,19 +4264,19 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B63" t="s">
         <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D63" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -4302,33 +4297,33 @@
         <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M63" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B64" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C64" t="s">
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H64" t="s">
         <v>21</v>
@@ -4351,25 +4346,25 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B65" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C65" t="s">
         <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E65" t="s">
         <v>23</v>
       </c>
       <c r="F65" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H65" t="s">
         <v>21</v>
@@ -4384,30 +4379,30 @@
         <v>22</v>
       </c>
       <c r="L65" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M65" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B66" t="s">
         <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D66" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E66" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F66" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G66" t="s">
         <v>26</v>
@@ -4425,7 +4420,7 @@
         <v>22</v>
       </c>
       <c r="L66" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M66" t="s">
         <v>43</v>
@@ -4433,19 +4428,19 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B67" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C67" t="s">
         <v>30</v>
       </c>
       <c r="D67" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E67" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -4470,19 +4465,19 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B68" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C68" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D68" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -4503,33 +4498,33 @@
         <v>22</v>
       </c>
       <c r="L68" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M68" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C69" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D69" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E69" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F69" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s">
         <v>24</v>
@@ -4545,30 +4540,30 @@
       </c>
       <c r="L69"/>
       <c r="M69" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B70" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C70" t="s">
         <v>30</v>
       </c>
       <c r="D70" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E70" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F70" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H70" t="s">
         <v>21</v>
@@ -4584,21 +4579,21 @@
       </c>
       <c r="L70"/>
       <c r="M70" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B71" t="s">
         <v>29</v>
       </c>
       <c r="C71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D71" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E71" t="s">
         <v>25</v>
@@ -4622,24 +4617,24 @@
         <v>22</v>
       </c>
       <c r="L71" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M71" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B72" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C72" t="s">
         <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
@@ -4663,24 +4658,24 @@
         <v>20</v>
       </c>
       <c r="L72" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M72" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B73" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C73" t="s">
         <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
@@ -4712,19 +4707,19 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B74" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C74" t="s">
         <v>30</v>
       </c>
       <c r="D74" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F74" t="s">
         <v>33</v>
@@ -4745,24 +4740,24 @@
         <v>22</v>
       </c>
       <c r="L74" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M74" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B75" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C75" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D75" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E75" t="s">
         <v>14</v>
@@ -4786,27 +4781,27 @@
         <v>22</v>
       </c>
       <c r="L75" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M75" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B76" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C76" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D76" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E76" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F76" t="s">
         <v>33</v>
@@ -4827,33 +4822,33 @@
         <v>22</v>
       </c>
       <c r="L76" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M76" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
+        <v>277</v>
+      </c>
+      <c r="B77" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" t="s">
+        <v>273</v>
+      </c>
+      <c r="D77" t="s">
+        <v>278</v>
+      </c>
+      <c r="E77" t="s">
+        <v>279</v>
+      </c>
+      <c r="F77" t="s">
         <v>280</v>
       </c>
-      <c r="B77" t="s">
-        <v>225</v>
-      </c>
-      <c r="C77" t="s">
-        <v>276</v>
-      </c>
-      <c r="D77" t="s">
-        <v>281</v>
-      </c>
-      <c r="E77" t="s">
-        <v>282</v>
-      </c>
-      <c r="F77" t="s">
-        <v>283</v>
-      </c>
       <c r="G77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H77" t="s">
         <v>21</v>
@@ -4868,15 +4863,15 @@
         <v>20</v>
       </c>
       <c r="L77" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M77" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B78" t="s">
         <v>36</v>
@@ -4885,7 +4880,7 @@
         <v>30</v>
       </c>
       <c r="D78" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
@@ -4909,24 +4904,24 @@
         <v>22</v>
       </c>
       <c r="L78" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M78" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B79" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D79" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E79" t="s">
         <v>41</v>
@@ -4950,27 +4945,27 @@
         <v>22</v>
       </c>
       <c r="L79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M79" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B80" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C80" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D80" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E80" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -4999,19 +4994,19 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B81" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C81" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D81" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
@@ -5032,33 +5027,33 @@
         <v>22</v>
       </c>
       <c r="L81" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M81" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B82" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C82" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D82" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F82" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H82" t="s">
         <v>24</v>
@@ -5076,30 +5071,30 @@
         <v>60</v>
       </c>
       <c r="M82" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B83" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C83" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D83" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E83" t="s">
         <v>23</v>
       </c>
       <c r="F83" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H83" t="s">
         <v>19</v>
@@ -5122,16 +5117,16 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B84" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D84" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E84" t="s">
         <v>27</v>
@@ -5155,7 +5150,7 @@
         <v>22</v>
       </c>
       <c r="L84" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M84" t="s">
         <v>70</v>
@@ -5163,16 +5158,16 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B85" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C85" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D85" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E85" t="s">
         <v>59</v>
@@ -5204,25 +5199,25 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
+        <v>305</v>
+      </c>
+      <c r="B86" t="s">
+        <v>222</v>
+      </c>
+      <c r="C86" t="s">
+        <v>306</v>
+      </c>
+      <c r="D86" t="s">
+        <v>307</v>
+      </c>
+      <c r="E86" t="s">
         <v>308</v>
       </c>
-      <c r="B86" t="s">
-        <v>225</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="F86" t="s">
         <v>309</v>
       </c>
-      <c r="D86" t="s">
-        <v>310</v>
-      </c>
-      <c r="E86" t="s">
-        <v>311</v>
-      </c>
-      <c r="F86" t="s">
-        <v>312</v>
-      </c>
       <c r="G86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H86" t="s">
         <v>24</v>
@@ -5237,27 +5232,27 @@
         <v>22</v>
       </c>
       <c r="L86" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M86" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
+        <v>311</v>
+      </c>
+      <c r="B87" t="s">
+        <v>222</v>
+      </c>
+      <c r="C87" t="s">
+        <v>312</v>
+      </c>
+      <c r="D87" t="s">
+        <v>313</v>
+      </c>
+      <c r="E87" t="s">
         <v>314</v>
-      </c>
-      <c r="B87" t="s">
-        <v>225</v>
-      </c>
-      <c r="C87" t="s">
-        <v>315</v>
-      </c>
-      <c r="D87" t="s">
-        <v>316</v>
-      </c>
-      <c r="E87" t="s">
-        <v>317</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
@@ -5278,27 +5273,27 @@
         <v>22</v>
       </c>
       <c r="L87" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M87" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B88" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D88" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F88" t="s">
         <v>33</v>
@@ -5327,19 +5322,19 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B89" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C89" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D89" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E89" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F89" t="s">
         <v>10</v>
@@ -5368,16 +5363,16 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
+        <v>321</v>
+      </c>
+      <c r="B90" t="s">
+        <v>322</v>
+      </c>
+      <c r="C90" t="s">
+        <v>323</v>
+      </c>
+      <c r="D90" t="s">
         <v>324</v>
-      </c>
-      <c r="B90" t="s">
-        <v>325</v>
-      </c>
-      <c r="C90" t="s">
-        <v>326</v>
-      </c>
-      <c r="D90" t="s">
-        <v>327</v>
       </c>
       <c r="E90" t="s">
         <v>41</v>
@@ -5401,27 +5396,27 @@
         <v>20</v>
       </c>
       <c r="L90" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M90" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B91" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C91" t="s">
+        <v>323</v>
+      </c>
+      <c r="D91" t="s">
         <v>326</v>
       </c>
-      <c r="D91" t="s">
-        <v>329</v>
-      </c>
       <c r="E91" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -5450,19 +5445,19 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B92" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C92" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D92" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E92" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F92" t="s">
         <v>10</v>
@@ -5483,27 +5478,27 @@
         <v>22</v>
       </c>
       <c r="L92" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M92" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B93" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C93" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D93" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E93" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -5532,19 +5527,19 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B94" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C94" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D94" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -5568,21 +5563,21 @@
         <v>72</v>
       </c>
       <c r="M94" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B95" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C95" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D95" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -5614,22 +5609,22 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B96" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C96" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D96" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F96" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G96" t="s">
         <v>26</v>
@@ -5647,27 +5642,27 @@
         <v>22</v>
       </c>
       <c r="L96" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M96" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B97" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C97" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D97" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -5696,25 +5691,25 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B98" t="s">
         <v>29</v>
       </c>
       <c r="C98" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D98" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E98" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
       <c r="F98" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H98" t="s">
         <v>24</v>
@@ -5729,27 +5724,27 @@
         <v>22</v>
       </c>
       <c r="L98" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M98" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B99" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C99" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D99" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F99" t="s">
         <v>33</v>
@@ -5778,19 +5773,19 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B100" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C100" t="s">
+        <v>362</v>
+      </c>
+      <c r="D100" t="s">
         <v>365</v>
       </c>
-      <c r="D100" t="s">
-        <v>368</v>
-      </c>
       <c r="E100" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -5811,33 +5806,33 @@
         <v>22</v>
       </c>
       <c r="L100" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M100" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
+        <v>366</v>
+      </c>
+      <c r="B101" t="s">
+        <v>349</v>
+      </c>
+      <c r="C101" t="s">
+        <v>367</v>
+      </c>
+      <c r="D101" t="s">
+        <v>368</v>
+      </c>
+      <c r="E101" t="s">
         <v>369</v>
       </c>
-      <c r="B101" t="s">
-        <v>352</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="F101" t="s">
         <v>370</v>
       </c>
-      <c r="D101" t="s">
-        <v>371</v>
-      </c>
-      <c r="E101" t="s">
-        <v>372</v>
-      </c>
-      <c r="F101" t="s">
-        <v>373</v>
-      </c>
       <c r="G101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H101" t="s">
         <v>24</v>
@@ -5860,19 +5855,19 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B102" t="s">
         <v>36</v>
       </c>
       <c r="C102" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D102" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E102" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
@@ -5901,19 +5896,19 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B103" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C103" t="s">
         <v>30</v>
       </c>
       <c r="D103" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E103" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
@@ -5942,19 +5937,19 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B104" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C104" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D104" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
@@ -5983,16 +5978,16 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B105" t="s">
         <v>36</v>
       </c>
       <c r="C105" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D105" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E105" t="s">
         <v>41</v>
@@ -6016,27 +6011,27 @@
         <v>22</v>
       </c>
       <c r="L105" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M105" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B106" t="s">
         <v>36</v>
       </c>
       <c r="C106" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D106" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E106" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F106" t="s">
         <v>10</v>
@@ -6065,19 +6060,19 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B107" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C107" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D107" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E107" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
@@ -6098,24 +6093,24 @@
         <v>22</v>
       </c>
       <c r="L107" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B108" t="s">
         <v>36</v>
       </c>
       <c r="C108" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D108" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E108" t="s">
         <v>27</v>
@@ -6147,7 +6142,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B109" t="s">
         <v>36</v>
@@ -6156,10 +6151,10 @@
         <v>30</v>
       </c>
       <c r="D109" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E109" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F109" t="s">
         <v>33</v>
@@ -6180,27 +6175,27 @@
         <v>22</v>
       </c>
       <c r="L109" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M109" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B110" t="s">
         <v>36</v>
       </c>
       <c r="C110" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D110" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
@@ -6221,33 +6216,33 @@
         <v>22</v>
       </c>
       <c r="L110" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M110" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B111" t="s">
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D111" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E111" t="s">
         <v>59</v>
       </c>
       <c r="F111" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H111" t="s">
         <v>21</v>
@@ -6270,7 +6265,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B112" t="s">
         <v>36</v>
@@ -6279,7 +6274,7 @@
         <v>30</v>
       </c>
       <c r="D112" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
@@ -6303,27 +6298,27 @@
         <v>22</v>
       </c>
       <c r="L112" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M112" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B113" t="s">
         <v>36</v>
       </c>
       <c r="C113" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D113" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E113" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F113" t="s">
         <v>33</v>
@@ -6352,16 +6347,16 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B114" t="s">
         <v>36</v>
       </c>
       <c r="C114" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D114" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E114" t="s">
         <v>46</v>
@@ -6393,25 +6388,25 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B115" t="s">
         <v>36</v>
       </c>
       <c r="C115" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D115" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G115" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H115" t="s">
         <v>21</v>
@@ -6426,24 +6421,24 @@
         <v>22</v>
       </c>
       <c r="L115" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="M115" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B116" t="s">
         <v>36</v>
       </c>
       <c r="C116" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D116" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -6475,16 +6470,16 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B117" t="s">
         <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D117" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E117" t="s">
         <v>25</v>
@@ -6516,25 +6511,25 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B118" t="s">
         <v>36</v>
       </c>
       <c r="C118" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D118" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G118" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H118" t="s">
         <v>24</v>
@@ -6557,19 +6552,19 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B119" t="s">
         <v>36</v>
       </c>
       <c r="C119" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D119" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E119" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F119" t="s">
         <v>10</v>
@@ -6598,19 +6593,19 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B120" t="s">
         <v>36</v>
       </c>
       <c r="C120" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D120" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E120" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F120" t="s">
         <v>33</v>
@@ -6631,33 +6626,33 @@
         <v>22</v>
       </c>
       <c r="L120" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M120" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B121" t="s">
         <v>36</v>
       </c>
       <c r="C121" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D121" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E121" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F121" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G121" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H121" t="s">
         <v>21</v>
@@ -6672,33 +6667,33 @@
         <v>22</v>
       </c>
       <c r="L121" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M121" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B122" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C122" t="s">
         <v>30</v>
       </c>
       <c r="D122" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E122" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F122" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G122" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H122" t="s">
         <v>21</v>
@@ -6721,16 +6716,16 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B123" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C123" t="s">
         <v>30</v>
       </c>
       <c r="D123" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -6762,19 +6757,19 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B124" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C124" t="s">
         <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E124" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F124" t="s">
         <v>10</v>
@@ -6795,30 +6790,30 @@
         <v>22</v>
       </c>
       <c r="L124" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M124" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B125" t="s">
         <v>29</v>
       </c>
       <c r="C125" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D125" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E125" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F125" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G125" t="s">
         <v>26</v>
@@ -6836,33 +6831,33 @@
         <v>22</v>
       </c>
       <c r="L125" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M125" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B126" t="s">
         <v>29</v>
       </c>
       <c r="C126" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D126" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
       </c>
       <c r="F126" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G126" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H126" t="s">
         <v>24</v>
@@ -6885,19 +6880,19 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B127" t="s">
         <v>36</v>
       </c>
       <c r="C127" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D127" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E127" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F127" t="s">
         <v>33</v>
@@ -6918,24 +6913,24 @@
         <v>22</v>
       </c>
       <c r="L127" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M127" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B128" t="s">
         <v>36</v>
       </c>
       <c r="C128" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D128" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E128" t="s">
         <v>27</v>
@@ -6967,19 +6962,19 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B129" t="s">
         <v>29</v>
       </c>
       <c r="C129" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D129" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E129" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F129" t="s">
         <v>33</v>
@@ -7008,16 +7003,16 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B130" t="s">
         <v>36</v>
       </c>
       <c r="C130" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D130" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E130" t="s">
         <v>27</v>
@@ -7048,7 +7043,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B130" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M130" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="A19" r:id="rId1" tooltip="شركة الطائرات المروحية" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%B7%D8%A7%D8%A6%D8%B1%D8%A7%D8%AA_%D8%A7%D9%84%D9%85%D8%B1%D9%88%D8%AD%D9%8A%D8%A9" xr:uid="{B727B320-8566-4495-ABEA-7334C54D7D73}"/>
     <hyperlink ref="A20" r:id="rId2" tooltip="شركة المشاعر المقدسة" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D9%85%D8%B4%D8%A7%D8%B9%D8%B1_%D8%A7%D9%84%D9%85%D9%82%D8%AF%D8%B3%D8%A9" xr:uid="{A8D19EB9-8BE0-4647-BF79-E0C77B490612}"/>

--- a/CEOs - data .xlsx
+++ b/CEOs - data .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://awqafinv-my.sharepoint.com/personal/salshehri_awqaf_com_sa/Documents/منشورات/CEOss/CEOss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="11_F3885B9803C23B35D8AA5315CE8E9C75F7ABBA22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA6428AC-1C9E-4124-BE75-8F707DB9C438}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="11_F3885B9803C23B35D8AA5315CE8E9C75F7ABBA22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E612EF8D-3BA1-4E90-BAD3-2D13F89D3295}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="457">
   <si>
     <t>الرئيس التنفيذي</t>
   </si>
@@ -1733,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M130"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1826,7 +1826,9 @@
       <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="M2"/>
+      <c r="M2" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -1865,7 +1867,9 @@
       <c r="L3" t="s">
         <v>38</v>
       </c>
-      <c r="M3"/>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -1945,7 +1949,9 @@
       <c r="L5" t="s">
         <v>47</v>
       </c>
-      <c r="M5"/>
+      <c r="M5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -1984,7 +1990,9 @@
       <c r="L6" t="s">
         <v>42</v>
       </c>
-      <c r="M6"/>
+      <c r="M6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -2023,7 +2031,9 @@
       <c r="L7" t="s">
         <v>33</v>
       </c>
-      <c r="M7"/>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -2062,7 +2072,9 @@
       <c r="L8" t="s">
         <v>56</v>
       </c>
-      <c r="M8"/>
+      <c r="M8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">

--- a/CEOs - data .xlsx
+++ b/CEOs - data .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://awqafinv-my.sharepoint.com/personal/salshehri_awqaf_com_sa/Documents/منشورات/CEOss/CEOss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="652" documentId="11_F3885B9803C23B35D8AA5315CE8E9C75F7ABBA22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F701DF53-BF58-41DF-9667-CEE2DF142597}"/>
+  <xr:revisionPtr revIDLastSave="654" documentId="11_F3885B9803C23B35D8AA5315CE8E9C75F7ABBA22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0567DF5-6C44-4DB6-B7FD-4DC9AC4FA425}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$166</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2086,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A138" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2146,22 +2146,22 @@
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>26</v>
@@ -2170,36 +2170,36 @@
         <v>21</v>
       </c>
       <c r="I2" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>237</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>339</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
@@ -2208,27 +2208,27 @@
         <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>36</v>
@@ -2237,10 +2237,10 @@
         <v>339</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
@@ -2249,60 +2249,60 @@
         <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>339</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I5" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>42</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>29</v>
@@ -2319,31 +2319,31 @@
         <v>339</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I6" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J6" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>42</v>
@@ -2351,40 +2351,40 @@
     </row>
     <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>42</v>
@@ -2392,22 +2392,22 @@
     </row>
     <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>26</v>
@@ -2416,24 +2416,24 @@
         <v>24</v>
       </c>
       <c r="I8" s="2">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>29</v>
@@ -2442,10 +2442,10 @@
         <v>341</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>33</v>
@@ -2457,13 +2457,13 @@
         <v>24</v>
       </c>
       <c r="I9" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>60</v>
@@ -2474,98 +2474,98 @@
     </row>
     <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I10" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I11" s="2">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>343</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>25</v>
@@ -2580,16 +2580,16 @@
         <v>24</v>
       </c>
       <c r="I12" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>43</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>348</v>
@@ -2606,13 +2606,13 @@
         <v>343</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>26</v>
@@ -2621,36 +2621,36 @@
         <v>24</v>
       </c>
       <c r="I13" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>348</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -2659,92 +2659,92 @@
         <v>26</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J14" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>344</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I15" s="2">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I16" s="2">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -2753,39 +2753,39 @@
         <v>20</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>345</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I17" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -2794,39 +2794,39 @@
         <v>20</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>345</v>
+        <v>92</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I18" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -2835,39 +2835,39 @@
         <v>20</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I19" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -2876,15 +2876,15 @@
         <v>20</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>29</v>
@@ -2893,10 +2893,10 @@
         <v>96</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -2908,39 +2908,39 @@
         <v>24</v>
       </c>
       <c r="I20" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>96</v>
+        <v>346</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>26</v>
@@ -2949,48 +2949,48 @@
         <v>24</v>
       </c>
       <c r="I21" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>346</v>
+        <v>96</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I22" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
@@ -3007,63 +3007,63 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I23" s="2">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J23" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>110</v>
+        <v>346</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>26</v>
@@ -3072,65 +3072,65 @@
         <v>19</v>
       </c>
       <c r="I24" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J24" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I25" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J25" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>36</v>
@@ -3139,13 +3139,13 @@
         <v>322</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>26</v>
@@ -3154,16 +3154,16 @@
         <v>21</v>
       </c>
       <c r="I26" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J26" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>120</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>36</v>
@@ -3180,13 +3180,13 @@
         <v>322</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>26</v>
@@ -3195,16 +3195,16 @@
         <v>21</v>
       </c>
       <c r="I27" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J27" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>120</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>36</v>
@@ -3221,13 +3221,13 @@
         <v>322</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>26</v>
@@ -3236,89 +3236,89 @@
         <v>21</v>
       </c>
       <c r="I28" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J28" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>322</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>307</v>
+        <v>101</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I29" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J29" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>339</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I30" s="2">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -3327,27 +3327,27 @@
         <v>22</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>339</v>
+        <v>103</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>33</v>
@@ -3356,10 +3356,10 @@
         <v>26</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I31" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -3368,97 +3368,82 @@
         <v>22</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I32" s="2">
+        <v>31</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="L32" s="2" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="2">
-        <v>31</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>142</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>29</v>
@@ -3467,24 +3452,39 @@
         <v>144</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="I34" s="2">
+        <v>27</v>
+      </c>
+      <c r="J34" s="2">
+        <v>27</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>29</v>
@@ -3493,7 +3493,7 @@
         <v>144</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>25</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>29</v>
@@ -3534,7 +3534,7 @@
         <v>144</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>25</v>
@@ -3546,13 +3546,13 @@
         <v>26</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I36" s="2">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J36" s="2">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>22</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>29</v>
@@ -3575,13 +3575,13 @@
         <v>144</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>26</v>
@@ -3590,39 +3590,39 @@
         <v>21</v>
       </c>
       <c r="I37" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J37" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>144</v>
+        <v>347</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>26</v>
@@ -3631,39 +3631,39 @@
         <v>21</v>
       </c>
       <c r="I38" s="2">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J38" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>348</v>
+        <v>29</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>347</v>
+        <v>161</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>26</v>
@@ -3672,39 +3672,39 @@
         <v>21</v>
       </c>
       <c r="I39" s="2">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J39" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>161</v>
+        <v>347</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>26</v>
@@ -3713,174 +3713,174 @@
         <v>21</v>
       </c>
       <c r="I40" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J40" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>347</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I41" s="2">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J41" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
-        <v>166</v>
+        <v>60</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>30</v>
+        <v>347</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I42" s="2">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="J42" s="2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>347</v>
+        <v>103</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I43" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J43" s="2">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I44" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J44" s="2">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>22</v>
@@ -3894,63 +3894,63 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>30</v>
+        <v>346</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I45" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J45" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>346</v>
+        <v>96</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>26</v>
@@ -3962,36 +3962,36 @@
         <v>27</v>
       </c>
       <c r="J46" s="2">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>96</v>
+        <v>346</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>26</v>
@@ -4000,33 +4000,33 @@
         <v>21</v>
       </c>
       <c r="I47" s="2">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J47" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>348</v>
+        <v>186</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>184</v>
@@ -4041,24 +4041,24 @@
         <v>21</v>
       </c>
       <c r="I48" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J48" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>186</v>
@@ -4067,7 +4067,7 @@
         <v>349</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>184</v>
@@ -4085,21 +4085,21 @@
         <v>25</v>
       </c>
       <c r="J49" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>186</v>
@@ -4108,13 +4108,13 @@
         <v>349</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>26</v>
@@ -4123,24 +4123,24 @@
         <v>21</v>
       </c>
       <c r="I50" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J50" s="2">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>186</v>
@@ -4149,39 +4149,39 @@
         <v>349</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I51" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J51" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>186</v>
@@ -4190,13 +4190,13 @@
         <v>349</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>14</v>
+        <v>350</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>26</v>
@@ -4205,24 +4205,24 @@
         <v>24</v>
       </c>
       <c r="I52" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J52" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>186</v>
@@ -4231,39 +4231,39 @@
         <v>349</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>350</v>
+        <v>14</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I53" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J53" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>186</v>
@@ -4272,10 +4272,10 @@
         <v>349</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -4284,27 +4284,27 @@
         <v>26</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I54" s="2">
         <v>25</v>
       </c>
       <c r="J54" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>186</v>
@@ -4313,13 +4313,13 @@
         <v>349</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>211</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>26</v>
@@ -4328,39 +4328,33 @@
         <v>24</v>
       </c>
       <c r="I55" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J55" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>186</v>
+        <v>348</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>211</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>26</v>
@@ -4369,115 +4363,121 @@
         <v>24</v>
       </c>
       <c r="I56" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J56" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>348</v>
+        <v>29</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>217</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I57" s="2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J57" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>43</v>
+        <v>218</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>346</v>
+        <v>222</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I58" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>219</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>26</v>
@@ -4486,36 +4486,36 @@
         <v>21</v>
       </c>
       <c r="I59" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J59" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>70</v>
+        <v>351</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -4524,10 +4524,10 @@
         <v>26</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I60" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J60" s="2">
         <v>0</v>
@@ -4535,28 +4535,25 @@
       <c r="K60" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L60" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="M60" s="2" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -4565,10 +4562,10 @@
         <v>26</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I61" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J61" s="2">
         <v>0</v>
@@ -4576,25 +4573,28 @@
       <c r="K61" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="L61" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="M61" s="2" t="s">
-        <v>227</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -4609,62 +4609,62 @@
         <v>15</v>
       </c>
       <c r="J62" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>36</v>
+        <v>348</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>236</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I63" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J63" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>233</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>348</v>
@@ -4673,13 +4673,13 @@
         <v>30</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>85</v>
@@ -4688,118 +4688,112 @@
         <v>21</v>
       </c>
       <c r="I64" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J64" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>70</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>348</v>
+        <v>29</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I65" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J65" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>237</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>243</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I66" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J66" s="2">
         <v>0</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>348</v>
+        <v>186</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>30</v>
+        <v>349</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -4811,18 +4805,24 @@
         <v>21</v>
       </c>
       <c r="I67" s="2">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J67" s="2">
         <v>0</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>186</v>
@@ -4831,31 +4831,28 @@
         <v>349</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I68" s="2">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="J68" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>248</v>
@@ -4863,69 +4860,69 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>186</v>
+        <v>348</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>349</v>
+        <v>30</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="H69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="2">
         <v>24</v>
       </c>
-      <c r="I69" s="2">
-        <v>38</v>
-      </c>
       <c r="J69" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>348</v>
+        <v>29</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I70" s="2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J70" s="2">
         <v>0</v>
@@ -4933,25 +4930,28 @@
       <c r="K70" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="L70" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="M70" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>33</v>
@@ -4960,27 +4960,27 @@
         <v>26</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I71" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J71" s="2">
         <v>0</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>348</v>
@@ -4989,39 +4989,39 @@
         <v>30</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I72" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J72" s="2">
         <v>0</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>261</v>
+        <v>10</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>262</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>348</v>
@@ -5030,22 +5030,22 @@
         <v>30</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I73" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J73" s="2">
         <v>0</v>
@@ -5054,30 +5054,30 @@
         <v>22</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>10</v>
+        <v>267</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>10</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>30</v>
+        <v>270</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>26</v>
@@ -5086,7 +5086,7 @@
         <v>21</v>
       </c>
       <c r="I74" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J74" s="2">
         <v>0</v>
@@ -5095,40 +5095,40 @@
         <v>22</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>268</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>348</v>
+        <v>221</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>204</v>
+        <v>273</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75" s="2">
         <v>21</v>
       </c>
-      <c r="I75" s="2">
-        <v>25</v>
-      </c>
       <c r="J75" s="2">
         <v>0</v>
       </c>
@@ -5136,15 +5136,15 @@
         <v>22</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>198</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>221</v>
@@ -5153,95 +5153,95 @@
         <v>272</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>118</v>
+        <v>278</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>33</v>
+        <v>279</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I76" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J76" s="2">
         <v>0</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>272</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>278</v>
+        <v>14</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>279</v>
+        <v>33</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I77" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J77" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>26</v>
@@ -5250,36 +5250,36 @@
         <v>24</v>
       </c>
       <c r="I78" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J78" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>96</v>
+        <v>286</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -5288,39 +5288,39 @@
         <v>26</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I79" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J79" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -5329,10 +5329,10 @@
         <v>26</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I80" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J80" s="2">
         <v>0</v>
@@ -5341,15 +5341,15 @@
         <v>22</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>10</v>
+        <v>291</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>10</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>221</v>
@@ -5358,16 +5358,16 @@
         <v>289</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>294</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>24</v>
@@ -5382,15 +5382,15 @@
         <v>22</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>291</v>
+        <v>60</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>221</v>
@@ -5399,22 +5399,22 @@
         <v>289</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I82" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J82" s="2">
         <v>0</v>
@@ -5423,15 +5423,15 @@
         <v>22</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>295</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>221</v>
@@ -5440,22 +5440,22 @@
         <v>289</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>298</v>
+        <v>33</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I83" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J83" s="2">
         <v>0</v>
@@ -5464,162 +5464,162 @@
         <v>22</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I84" s="2">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J84" s="2">
         <v>0</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>301</v>
+        <v>60</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>307</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>308</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I85" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="J85" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>60</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>308</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I86" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="J86" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>195</v>
+        <v>314</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>311</v>
+        <v>96</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>313</v>
+        <v>107</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I87" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J87" s="2">
         <v>0</v>
@@ -5628,39 +5628,39 @@
         <v>22</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>314</v>
+        <v>70</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>314</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>107</v>
+        <v>319</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I88" s="2">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="J88" s="2">
         <v>0</v>
@@ -5669,27 +5669,27 @@
         <v>22</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>221</v>
+        <v>321</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>222</v>
+        <v>322</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>319</v>
+        <v>41</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -5698,27 +5698,27 @@
         <v>26</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I89" s="2">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J89" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>321</v>
@@ -5727,10 +5727,10 @@
         <v>322</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -5739,27 +5739,27 @@
         <v>26</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I90" s="2">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J90" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>195</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>321</v>
@@ -5768,7 +5768,7 @@
         <v>322</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>184</v>
@@ -5780,10 +5780,10 @@
         <v>26</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I91" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J91" s="2">
         <v>0</v>
@@ -5792,15 +5792,15 @@
         <v>22</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>60</v>
+        <v>326</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>60</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>321</v>
@@ -5809,10 +5809,10 @@
         <v>322</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -5821,39 +5821,39 @@
         <v>26</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I92" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J92" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>326</v>
+        <v>38</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>326</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -5862,27 +5862,27 @@
         <v>26</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I93" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J93" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>38</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>331</v>
@@ -5891,13 +5891,13 @@
         <v>222</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>26</v>
@@ -5906,7 +5906,7 @@
         <v>24</v>
       </c>
       <c r="I94" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J94" s="2">
         <v>0</v>
@@ -5915,15 +5915,15 @@
         <v>22</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>333</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>331</v>
@@ -5932,23 +5932,23 @@
         <v>222</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I95" s="2">
         <v>14</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I95" s="2">
-        <v>16</v>
-      </c>
       <c r="J95" s="2">
         <v>0</v>
       </c>
@@ -5956,30 +5956,30 @@
         <v>22</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>15</v>
+        <v>338</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>15</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>331</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>222</v>
+        <v>353</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>26</v>
@@ -5988,89 +5988,89 @@
         <v>19</v>
       </c>
       <c r="I96" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="J96" s="2">
         <v>0</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>338</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>331</v>
+        <v>29</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>357</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I97" s="2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J97" s="2">
         <v>0</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>10</v>
+        <v>358</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>357</v>
+        <v>33</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I98" s="2">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J98" s="2">
         <v>0</v>
@@ -6079,15 +6079,15 @@
         <v>22</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>358</v>
+        <v>42</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>359</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>348</v>
@@ -6096,104 +6096,104 @@
         <v>361</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I99" s="2">
         <v>21</v>
       </c>
       <c r="J99" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>42</v>
+        <v>363</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>42</v>
+        <v>363</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>178</v>
+        <v>368</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>369</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I100" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J100" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>363</v>
+        <v>70</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>363</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>369</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I101" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J101" s="2">
         <v>0</v>
@@ -6202,27 +6202,27 @@
         <v>22</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>36</v>
+        <v>348</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>371</v>
+        <v>30</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>373</v>
+        <v>184</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -6231,13 +6231,13 @@
         <v>26</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I102" s="2">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="J102" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K102" s="2" t="s">
         <v>22</v>
@@ -6251,19 +6251,19 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>30</v>
+        <v>347</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -6272,13 +6272,13 @@
         <v>26</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I103" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J103" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K103" s="2" t="s">
         <v>22</v>
@@ -6292,19 +6292,19 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -6316,36 +6316,36 @@
         <v>24</v>
       </c>
       <c r="I104" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J104" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>42</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>41</v>
+        <v>384</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -6354,10 +6354,10 @@
         <v>26</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I105" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J105" s="2">
         <v>0</v>
@@ -6366,27 +6366,27 @@
         <v>22</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>380</v>
+        <v>34</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>380</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>36</v>
+        <v>331</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>384</v>
+        <v>118</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -6395,10 +6395,10 @@
         <v>26</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I106" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J106" s="2">
         <v>0</v>
@@ -6407,27 +6407,27 @@
         <v>22</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>34</v>
+        <v>387</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>331</v>
+        <v>36</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -6436,10 +6436,10 @@
         <v>26</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I107" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J107" s="2">
         <v>0</v>
@@ -6448,30 +6448,30 @@
         <v>22</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>387</v>
+        <v>42</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>389</v>
+        <v>30</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>27</v>
+        <v>393</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>26</v>
@@ -6480,7 +6480,7 @@
         <v>24</v>
       </c>
       <c r="I108" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J108" s="2">
         <v>0</v>
@@ -6489,30 +6489,30 @@
         <v>22</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>393</v>
+        <v>107</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>26</v>
@@ -6521,7 +6521,7 @@
         <v>24</v>
       </c>
       <c r="I109" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J109" s="2">
         <v>0</v>
@@ -6530,39 +6530,39 @@
         <v>22</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>195</v>
+        <v>396</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>198</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>96</v>
+        <v>347</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I110" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J110" s="2">
         <v>0</v>
@@ -6571,39 +6571,39 @@
         <v>22</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>396</v>
+        <v>70</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>397</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>347</v>
+        <v>30</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I111" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J111" s="2">
         <v>0</v>
@@ -6612,39 +6612,39 @@
         <v>22</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>70</v>
+        <v>326</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>70</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>30</v>
+        <v>404</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I112" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J112" s="2">
         <v>0</v>
@@ -6653,27 +6653,27 @@
         <v>22</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>326</v>
+        <v>42</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>326</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>33</v>
@@ -6682,57 +6682,57 @@
         <v>26</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I113" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J113" s="2">
         <v>0</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>33</v>
+        <v>412</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I114" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J114" s="2">
         <v>0</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L114" s="2" t="s">
         <v>70</v>
@@ -6743,48 +6743,48 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>410</v>
+        <v>96</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>412</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I115" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J115" s="2">
         <v>0</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>36</v>
@@ -6793,145 +6793,145 @@
         <v>96</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I116" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J116" s="2">
         <v>0</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>96</v>
+        <v>322</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>33</v>
+        <v>419</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I117" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J117" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K117" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>14</v>
+        <v>422</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>419</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I118" s="2">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J118" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K118" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I119" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J119" s="2">
         <v>0</v>
@@ -6940,39 +6940,39 @@
         <v>22</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>10</v>
+        <v>351</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>10</v>
+        <v>426</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>33</v>
+        <v>430</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I120" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J120" s="2">
         <v>0</v>
@@ -6981,39 +6981,39 @@
         <v>22</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>36</v>
+        <v>348</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>346</v>
+        <v>30</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>429</v>
+        <v>178</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>85</v>
+        <v>435</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I121" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J121" s="2">
         <v>0</v>
@@ -7022,15 +7022,15 @@
         <v>22</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>431</v>
+        <v>67</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>431</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>348</v>
@@ -7039,22 +7039,22 @@
         <v>30</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>434</v>
+        <v>33</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>435</v>
+        <v>26</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I122" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J122" s="2">
         <v>0</v>
@@ -7063,7 +7063,7 @@
         <v>22</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="M122" s="2" t="s">
         <v>15</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>348</v>
@@ -7080,13 +7080,13 @@
         <v>30</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>26</v>
@@ -7095,7 +7095,7 @@
         <v>21</v>
       </c>
       <c r="I123" s="2">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J123" s="2">
         <v>0</v>
@@ -7104,39 +7104,39 @@
         <v>22</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>15</v>
+        <v>440</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>348</v>
+        <v>29</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I124" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J124" s="2">
         <v>0</v>
@@ -7145,39 +7145,39 @@
         <v>22</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>128</v>
+        <v>443</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>96</v>
+        <v>339</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>175</v>
+        <v>447</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I125" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J125" s="2">
         <v>0</v>
@@ -7186,39 +7186,39 @@
         <v>22</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>444</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>447</v>
+        <v>33</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I126" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J126" s="2">
         <v>0</v>
@@ -7227,15 +7227,15 @@
         <v>22</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>42</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>36</v>
@@ -7244,22 +7244,22 @@
         <v>389</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I127" s="2">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J127" s="2">
         <v>0</v>
@@ -7268,39 +7268,39 @@
         <v>22</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I128" s="2">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J128" s="2">
         <v>0</v>
@@ -7317,19 +7317,19 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>33</v>
@@ -7338,10 +7338,10 @@
         <v>26</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I129" s="2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J129" s="2">
         <v>0</v>
@@ -7358,19 +7358,19 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>36</v>
+        <v>321</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>389</v>
+        <v>322</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>33</v>
@@ -7382,7 +7382,7 @@
         <v>24</v>
       </c>
       <c r="I130" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J130" s="2">
         <v>0</v>
@@ -7391,30 +7391,30 @@
         <v>22</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>321</v>
+        <v>462</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>14</v>
+        <v>460</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>33</v>
+        <v>459</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>26</v>
@@ -7423,106 +7423,106 @@
         <v>24</v>
       </c>
       <c r="I131" s="2">
+        <v>6</v>
+      </c>
+      <c r="J131" s="2">
+        <v>0</v>
+      </c>
+      <c r="K131" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J131" s="2">
-        <v>0</v>
-      </c>
-      <c r="K131" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="L131" s="2" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I132" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J132" s="2">
         <v>0</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>42</v>
+        <v>468</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>42</v>
+        <v>468</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>467</v>
+        <v>348</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>464</v>
+        <v>14</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>463</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I133" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J133" s="2">
         <v>0</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>468</v>
+        <v>67</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>468</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>348</v>
@@ -7531,7 +7531,7 @@
         <v>322</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>14</v>
@@ -7546,7 +7546,7 @@
         <v>21</v>
       </c>
       <c r="I134" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J134" s="2">
         <v>0</v>
@@ -7555,30 +7555,30 @@
         <v>20</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>263</v>
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>348</v>
+        <v>29</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>322</v>
+        <v>30</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>26</v>
@@ -7587,33 +7587,33 @@
         <v>21</v>
       </c>
       <c r="I135" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J135" s="2">
         <v>0</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>86</v>
+        <v>475</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A136" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>29</v>
+        <v>321</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>30</v>
+        <v>322</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>14</v>
@@ -7628,36 +7628,36 @@
         <v>21</v>
       </c>
       <c r="I136" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J136" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K136" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>268</v>
+        <v>70</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>321</v>
+        <v>482</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>33</v>
@@ -7669,48 +7669,48 @@
         <v>21</v>
       </c>
       <c r="I137" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J137" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K137" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>70</v>
+        <v>481</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>478</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>482</v>
+        <v>331</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>322</v>
+        <v>96</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I138" s="2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J138" s="2">
         <v>0</v>
@@ -7719,39 +7719,39 @@
         <v>22</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>481</v>
+        <v>387</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>42</v>
+        <v>387</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>331</v>
+        <v>221</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I139" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J139" s="2">
         <v>0</v>
@@ -7760,27 +7760,27 @@
         <v>22</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>387</v>
+        <v>42</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>221</v>
+        <v>321</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>101</v>
+        <v>393</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>33</v>
@@ -7792,7 +7792,7 @@
         <v>21</v>
       </c>
       <c r="I140" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J140" s="2">
         <v>0</v>
@@ -7801,39 +7801,39 @@
         <v>22</v>
       </c>
       <c r="L140" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M140" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="M140" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>393</v>
+        <v>14</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I141" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J141" s="2">
         <v>0</v>
@@ -7845,12 +7845,12 @@
         <v>195</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>42</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>29</v>
@@ -7859,22 +7859,22 @@
         <v>30</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I142" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J142" s="2">
         <v>0</v>
@@ -7883,39 +7883,39 @@
         <v>22</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>30</v>
+        <v>222</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I143" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J143" s="2">
         <v>0</v>
@@ -7924,24 +7924,24 @@
         <v>22</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>60</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>27</v>
@@ -7956,36 +7956,36 @@
         <v>24</v>
       </c>
       <c r="I144" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J144" s="2">
         <v>0</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L144" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="M144" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="M144" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -7994,27 +7994,27 @@
         <v>26</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I145" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J145" s="2">
         <v>0</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>497</v>
+        <v>165</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>29</v>
@@ -8023,22 +8023,19 @@
         <v>339</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>555</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I146" s="2">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J146" s="2">
         <v>0</v>
@@ -8047,65 +8044,68 @@
         <v>22</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>339</v>
+        <v>222</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>555</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I147" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J147" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K147" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>222</v>
+        <v>506</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -8117,39 +8117,39 @@
         <v>21</v>
       </c>
       <c r="I148" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J148" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K148" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>142</v>
+        <v>504</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>142</v>
+        <v>504</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>29</v>
+        <v>321</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>506</v>
+        <v>322</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>26</v>
@@ -8158,48 +8158,48 @@
         <v>21</v>
       </c>
       <c r="I149" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J149" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K149" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>504</v>
+        <v>267</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
-        <v>507</v>
+        <v>188</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>321</v>
+        <v>511</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>322</v>
+        <v>512</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>184</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I150" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J150" s="2">
         <v>0</v>
@@ -8208,39 +8208,39 @@
         <v>22</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>267</v>
+        <v>34</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>509</v>
+        <v>188</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
-        <v>188</v>
+        <v>513</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>511</v>
+        <v>72</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>512</v>
+        <v>322</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>515</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I151" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J151" s="2">
         <v>0</v>
@@ -8249,15 +8249,15 @@
         <v>22</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>188</v>
+        <v>42</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>72</v>
@@ -8266,22 +8266,22 @@
         <v>322</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>46</v>
+        <v>518</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I152" s="2">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J152" s="2">
         <v>0</v>
@@ -8293,36 +8293,36 @@
         <v>42</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>42</v>
+        <v>516</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>72</v>
+        <v>348</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>322</v>
+        <v>96</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>518</v>
+        <v>14</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>519</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I153" s="2">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J153" s="2">
         <v>0</v>
@@ -8334,24 +8334,24 @@
         <v>42</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>516</v>
+        <v>42</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>348</v>
+        <v>186</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>96</v>
+        <v>322</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -8363,7 +8363,7 @@
         <v>21</v>
       </c>
       <c r="I154" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J154" s="2">
         <v>0</v>
@@ -8372,30 +8372,30 @@
         <v>22</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>42</v>
+        <v>198</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A155" s="2" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>186</v>
+        <v>482</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>118</v>
+        <v>526</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>26</v>
@@ -8404,89 +8404,89 @@
         <v>21</v>
       </c>
       <c r="I155" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J155" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K155" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>524</v>
+        <v>76</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A156" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>482</v>
+        <v>331</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>526</v>
+        <v>107</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I156" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J156" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K156" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A157" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>331</v>
+        <v>221</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>222</v>
+        <v>539</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>107</v>
+        <v>532</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I157" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J157" s="2">
         <v>0</v>
@@ -8495,27 +8495,27 @@
         <v>22</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>131</v>
+        <v>533</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>131</v>
+        <v>533</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A158" s="2" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>532</v>
+        <v>373</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -8527,36 +8527,36 @@
         <v>24</v>
       </c>
       <c r="I158" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J158" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A159" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>331</v>
+        <v>541</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>373</v>
+        <v>543</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -8565,42 +8565,42 @@
         <v>26</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I159" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J159" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K159" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L159" s="2" t="s">
-        <v>535</v>
+        <v>10</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>536</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A160" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>541</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>26</v>
@@ -8609,7 +8609,7 @@
         <v>19</v>
       </c>
       <c r="I160" s="2">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J160" s="2">
         <v>0</v>
@@ -8618,30 +8618,30 @@
         <v>22</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>10</v>
+        <v>548</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A161" s="2" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>541</v>
+        <v>331</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>545</v>
+        <v>222</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>532</v>
+        <v>27</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>26</v>
@@ -8650,7 +8650,7 @@
         <v>19</v>
       </c>
       <c r="I161" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J161" s="2">
         <v>0</v>
@@ -8659,15 +8659,15 @@
         <v>22</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>548</v>
+        <v>258</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A162" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>331</v>
@@ -8676,13 +8676,13 @@
         <v>222</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>27</v>
+        <v>553</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>552</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>26</v>
@@ -8691,7 +8691,7 @@
         <v>19</v>
       </c>
       <c r="I162" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J162" s="2">
         <v>0</v>
@@ -8700,30 +8700,30 @@
         <v>22</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>258</v>
+        <v>338</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A163" s="2" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>331</v>
+        <v>221</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>222</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>553</v>
+        <v>46</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>552</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>26</v>
@@ -8732,7 +8732,7 @@
         <v>19</v>
       </c>
       <c r="I163" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J163" s="2">
         <v>0</v>
@@ -8741,39 +8741,39 @@
         <v>22</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>338</v>
+        <v>558</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>338</v>
+        <v>558</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A164" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>221</v>
+        <v>541</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>222</v>
+        <v>561</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>459</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I164" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J164" s="2">
         <v>0</v>
@@ -8782,71 +8782,71 @@
         <v>22</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A165" s="2" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>541</v>
+        <v>221</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>561</v>
+        <v>222</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>307</v>
+        <v>59</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>459</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I165" s="2">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J165" s="2">
         <v>0</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>562</v>
+        <v>119</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>562</v>
+        <v>119</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A166" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>222</v>
+        <v>30</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>26</v>
@@ -8855,7 +8855,7 @@
         <v>24</v>
       </c>
       <c r="I166" s="2">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J166" s="2">
         <v>0</v>
@@ -8864,68 +8864,68 @@
         <v>20</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>119</v>
+        <v>567</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>119</v>
+        <v>567</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A167" s="2" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="C167" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I167" s="2">
+        <v>24</v>
+      </c>
+      <c r="J167" s="2">
+        <v>0</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A168" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D167" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I167" s="2">
-        <v>19</v>
-      </c>
-      <c r="J167" s="2">
-        <v>0</v>
-      </c>
-      <c r="K167" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L167" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="M167" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A168" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="D168" s="2" t="s">
-        <v>569</v>
+        <v>31</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>33</v>
@@ -8937,52 +8937,52 @@
         <v>21</v>
       </c>
       <c r="I168" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J168" s="2">
         <v>0</v>
       </c>
       <c r="K168" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L168" s="2" t="s">
-        <v>570</v>
+        <v>34</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>328</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D167" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:D166" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="A19" r:id="rId1" tooltip="شركة الطائرات المروحية" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%B7%D8%A7%D8%A6%D8%B1%D8%A7%D8%AA_%D8%A7%D9%84%D9%85%D8%B1%D9%88%D8%AD%D9%8A%D8%A9" xr:uid="{B727B320-8566-4495-ABEA-7334C54D7D73}"/>
-    <hyperlink ref="A20" r:id="rId2" tooltip="شركة المشاعر المقدسة" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D9%85%D8%B4%D8%A7%D8%B9%D8%B1_%D8%A7%D9%84%D9%85%D9%82%D8%AF%D8%B3%D8%A9" xr:uid="{A8D19EB9-8BE0-4647-BF79-E0C77B490612}"/>
-    <hyperlink ref="A21" r:id="rId3" tooltip="شركة مشاريع الترفيه السعودية" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D9%85%D8%B4%D8%A7%D8%B1%D9%8A%D8%B9_%D8%A7%D9%84%D8%AA%D8%B1%D9%81%D9%8A%D9%87_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9" xr:uid="{2C897375-5E7A-4AC8-AECE-6B91DD73A034}"/>
-    <hyperlink ref="A22" r:id="rId4" tooltip="شركة مطارات القابضة" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D9%85%D8%B7%D8%A7%D8%B1%D8%A7%D8%AA_%D8%A7%D9%84%D9%82%D8%A7%D8%A8%D8%B6%D8%A9" xr:uid="{FA811958-4E20-4AB1-B038-3DBE33441440}"/>
-    <hyperlink ref="A23" r:id="rId5" tooltip="شركة وسط جدة للتطوير" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D9%88%D8%B3%D8%B7_%D8%AC%D8%AF%D8%A9_%D9%84%D9%84%D8%AA%D8%B7%D9%88%D9%8A%D8%B1" xr:uid="{26159C5F-8D10-4370-AEE6-143A2FE1A15D}"/>
-    <hyperlink ref="A24" r:id="rId6" tooltip="الخطوط الحديدية السعودية" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AE%D8%B7%D9%88%D8%B7_%D8%A7%D9%84%D8%AD%D8%AF%D9%8A%D8%AF%D9%8A%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9" xr:uid="{0457078D-4EE7-4443-892B-0FE8B97AAD39}"/>
-    <hyperlink ref="A25" r:id="rId7" tooltip="السعودية البيرق" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D8%A7%D9%84%D8%A8%D9%8A%D8%B1%D9%82" xr:uid="{AF6A25D3-3B68-4BDA-AC85-6DAF11C32E23}"/>
-    <hyperlink ref="A26" r:id="rId8" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B3%D9%88%D9%82_%D8%A7%D9%84%D9%85%D8%A7%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_(%D8%AA%D8%AF%D8%A7%D9%88%D9%84)" xr:uid="{8BDCCF14-0648-4395-B232-9C8525561D63}"/>
-    <hyperlink ref="A30" r:id="rId9" tooltip="الشركة السعودية للاستثمار الجريء" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D9%84%D9%84%D8%A7%D8%B3%D8%AA%D8%AB%D9%85%D8%A7%D8%B1_%D8%A7%D9%84%D8%AC%D8%B1%D9%8A%D8%A1" xr:uid="{9885F5D8-57D4-4201-87C0-0DF4163E8CAD}"/>
-    <hyperlink ref="A31" r:id="rId10" tooltip="الشركة السعودية للحوسبة السحابية" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D9%84%D9%84%D8%AD%D9%88%D8%B3%D8%A8%D8%A9_%D8%A7%D9%84%D8%B3%D8%AD%D8%A7%D8%A8%D9%8A%D8%A9" xr:uid="{C33419EB-956B-4F7C-833A-6E5B0F2CC450}"/>
-    <hyperlink ref="A32" r:id="rId11" tooltip="الشركة السعودية للخدمات الأرضية" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D9%84%D9%84%D8%AE%D8%AF%D9%85%D8%A7%D8%AA_%D8%A7%D9%84%D8%A3%D8%B1%D8%B6%D9%8A%D8%A9" xr:uid="{3F17ED45-86B6-4688-83FC-8A028A114D35}"/>
-    <hyperlink ref="A33" r:id="rId12" tooltip="الشركة السعودية للصناعات العسكرية" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D9%84%D9%84%D8%B5%D9%86%D8%A7%D8%B9%D8%A7%D8%AA_%D8%A7%D9%84%D8%B9%D8%B3%D9%83%D8%B1%D9%8A%D8%A9" xr:uid="{6A7A8756-422D-4985-BE85-6A49730FB9B4}"/>
-    <hyperlink ref="A34" r:id="rId13" tooltip="الشركة السعودية للكهرباء" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D9%84%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1" xr:uid="{80408E58-BDD3-4808-93B0-8EEAFDED8498}"/>
-    <hyperlink ref="A39" r:id="rId14" tooltip="الشركة الكيميائية السعودية" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D9%83%D9%8A%D9%85%D9%8A%D8%A7%D8%A6%D9%8A%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9" xr:uid="{D57A55E3-E139-4829-99AF-339E7A5436C3}"/>
-    <hyperlink ref="A40" r:id="rId15" tooltip="الشركة الوطنية السعودية للنقل البحري" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D9%88%D8%B7%D9%86%D9%8A%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D9%84%D9%84%D9%86%D9%82%D9%84_%D8%A7%D9%84%D8%A8%D8%AD%D8%B1%D9%8A" xr:uid="{A475F56C-BE0E-48D7-876B-6704A4E8D49F}"/>
-    <hyperlink ref="A41" r:id="rId16" tooltip="الشركة السعودية للصناعات العسكرية" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D9%84%D9%84%D8%B5%D9%86%D8%A7%D8%B9%D8%A7%D8%AA_%D8%A7%D9%84%D8%B9%D8%B3%D9%83%D8%B1%D9%8A%D8%A9" xr:uid="{449A16C1-ABB3-48E0-BB63-8801A6A84955}"/>
-    <hyperlink ref="A42" r:id="rId17" tooltip="دسر (شركة)" display="https://ar.wikipedia.org/wiki/%D8%AF%D8%B3%D8%B1_(%D8%B4%D8%B1%D9%83%D8%A9)" xr:uid="{E1273388-E827-4D5D-8B32-DB01A95B782C}"/>
-    <hyperlink ref="A43" r:id="rId18" tooltip="سابك" display="https://ar.wikipedia.org/wiki/%D8%B3%D8%A7%D8%A8%D9%83" xr:uid="{951A505D-CE4C-4090-8A1E-83178E2B42E7}"/>
-    <hyperlink ref="A44" r:id="rId19" tooltip="الخطوط السعودية" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AE%D8%B7%D9%88%D8%B7_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9" xr:uid="{222EBE41-79E2-4422-BC90-275B67B87547}"/>
-    <hyperlink ref="A45" r:id="rId20" tooltip="شركة الخطوط السعودية لتنمية وتطوير العقار" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%AE%D8%B7%D9%88%D8%B7_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D9%84%D8%AA%D9%86%D9%85%D9%8A%D8%A9_%D9%88%D8%AA%D8%B7%D9%88%D9%8A%D8%B1_%D8%A7%D9%84%D8%B9%D9%82%D8%A7%D8%B1" xr:uid="{69988CCD-6FAB-4E2C-AD75-F5CB2C4E795B}"/>
-    <hyperlink ref="A46" r:id="rId21" tooltip="شركة الخطوط السعودية للتموين" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%AE%D8%B7%D9%88%D8%B7_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D9%84%D9%84%D8%AA%D9%85%D9%88%D9%8A%D9%86" xr:uid="{0A970527-AD5C-4605-B9B0-6910AE8BAFD2}"/>
-    <hyperlink ref="A47" r:id="rId22" tooltip="شركة جدة للتنمية والتطوير العمراني" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D8%AC%D8%AF%D8%A9_%D9%84%D9%84%D8%AA%D9%86%D9%85%D9%8A%D8%A9_%D9%88%D8%A7%D9%84%D8%AA%D8%B7%D9%88%D9%8A%D8%B1_%D8%A7%D9%84%D8%B9%D9%85%D8%B1%D8%A7%D9%86%D9%8A" xr:uid="{BC4DE0CC-09C4-4299-9211-DBEAF0DD3519}"/>
-    <hyperlink ref="A50" r:id="rId23" display="https://saudipedia.com/article/10617/%D8%A7%D9%82%D8%AA%D8%B5%D8%A7%D8%AF-%D9%88%D8%A3%D8%B9%D9%85%D8%A7%D9%84/%D9%85%D8%A7%D9%84/%D9%85%D8%B5%D8%B1%D9%81-%D8%A7%D9%84%D8%B1%D8%A7%D8%AC%D8%AD%D9%8A" xr:uid="{7C1B37BB-3D9B-4CC9-987A-E8AE82CBC70C}"/>
-    <hyperlink ref="A52" r:id="rId24" display="https://saudipedia.com/article/12514/%D8%A7%D9%82%D8%AA%D8%B5%D8%A7%D8%AF-%D9%88%D8%A3%D8%B9%D9%85%D8%A7%D9%84/%D9%85%D8%A7%D9%84/%D8%A7%D9%84%D8%A8%D9%86%D9%83-%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A-%D8%A7%D9%84%D9%81%D8%B1%D9%86%D8%B3%D9%8A" xr:uid="{8B325561-23AB-4C40-BF83-0A4C629ADCAB}"/>
-    <hyperlink ref="A53" r:id="rId25" display="https://saudipedia.com/article/12250/%D8%A7%D9%82%D8%AA%D8%B5%D8%A7%D8%AF-%D9%88%D8%A3%D8%B9%D9%85%D8%A7%D9%84/%D9%85%D8%A7%D9%84/%D8%A7%D9%84%D8%A8%D9%86%D9%83-%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A-%D9%84%D9%84%D8%A7%D8%B3%D8%AA%D8%AB%D9%85%D8%A7%D8%B1" xr:uid="{C281F978-8370-474A-A28A-18E03778C8A7}"/>
-    <hyperlink ref="A55" r:id="rId26" display="https://saudipedia.com/article/12269/%D8%A7%D9%82%D8%AA%D8%B5%D8%A7%D8%AF-%D9%88%D8%A3%D8%B9%D9%85%D8%A7%D9%84/%D9%85%D8%A7%D9%84/%D8%A8%D9%86%D9%83-%D8%A7%D9%84%D8%A8%D9%84%D8%A7%D8%AF" xr:uid="{A45B96AF-1548-41F6-A348-9142A182A991}"/>
-    <hyperlink ref="A48" r:id="rId27" tooltip="طيران أديل" display="https://ar.wikipedia.org/wiki/%D8%B7%D9%8A%D8%B1%D8%A7%D9%86_%D8%A3%D8%AF%D9%8A%D9%84" xr:uid="{7640FDA8-9C36-4B1C-89DC-49EE73A343A6}"/>
-    <hyperlink ref="A156" r:id="rId28" display="https://www.my.gov.sa/wps/portal/snp/servicesDirectory/servicedetails/s9173" xr:uid="{93537CEE-718D-4FDB-8BCC-2BA74CD16023}"/>
+    <hyperlink ref="A18" r:id="rId1" tooltip="شركة الطائرات المروحية" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%B7%D8%A7%D8%A6%D8%B1%D8%A7%D8%AA_%D8%A7%D9%84%D9%85%D8%B1%D9%88%D8%AD%D9%8A%D8%A9" xr:uid="{B727B320-8566-4495-ABEA-7334C54D7D73}"/>
+    <hyperlink ref="A19" r:id="rId2" tooltip="شركة المشاعر المقدسة" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D9%85%D8%B4%D8%A7%D8%B9%D8%B1_%D8%A7%D9%84%D9%85%D9%82%D8%AF%D8%B3%D8%A9" xr:uid="{A8D19EB9-8BE0-4647-BF79-E0C77B490612}"/>
+    <hyperlink ref="A20" r:id="rId3" tooltip="شركة مشاريع الترفيه السعودية" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D9%85%D8%B4%D8%A7%D8%B1%D9%8A%D8%B9_%D8%A7%D9%84%D8%AA%D8%B1%D9%81%D9%8A%D9%87_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9" xr:uid="{2C897375-5E7A-4AC8-AECE-6B91DD73A034}"/>
+    <hyperlink ref="A21" r:id="rId4" tooltip="شركة مطارات القابضة" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D9%85%D8%B7%D8%A7%D8%B1%D8%A7%D8%AA_%D8%A7%D9%84%D9%82%D8%A7%D8%A8%D8%B6%D8%A9" xr:uid="{FA811958-4E20-4AB1-B038-3DBE33441440}"/>
+    <hyperlink ref="A22" r:id="rId5" tooltip="شركة وسط جدة للتطوير" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D9%88%D8%B3%D8%B7_%D8%AC%D8%AF%D8%A9_%D9%84%D9%84%D8%AA%D8%B7%D9%88%D9%8A%D8%B1" xr:uid="{26159C5F-8D10-4370-AEE6-143A2FE1A15D}"/>
+    <hyperlink ref="A23" r:id="rId6" tooltip="الخطوط الحديدية السعودية" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AE%D8%B7%D9%88%D8%B7_%D8%A7%D9%84%D8%AD%D8%AF%D9%8A%D8%AF%D9%8A%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9" xr:uid="{0457078D-4EE7-4443-892B-0FE8B97AAD39}"/>
+    <hyperlink ref="A24" r:id="rId7" tooltip="السعودية البيرق" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D8%A7%D9%84%D8%A8%D9%8A%D8%B1%D9%82" xr:uid="{AF6A25D3-3B68-4BDA-AC85-6DAF11C32E23}"/>
+    <hyperlink ref="A25" r:id="rId8" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B3%D9%88%D9%82_%D8%A7%D9%84%D9%85%D8%A7%D9%84%D9%8A%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_(%D8%AA%D8%AF%D8%A7%D9%88%D9%84)" xr:uid="{8BDCCF14-0648-4395-B232-9C8525561D63}"/>
+    <hyperlink ref="A29" r:id="rId9" tooltip="الشركة السعودية للاستثمار الجريء" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D9%84%D9%84%D8%A7%D8%B3%D8%AA%D8%AB%D9%85%D8%A7%D8%B1_%D8%A7%D9%84%D8%AC%D8%B1%D9%8A%D8%A1" xr:uid="{9885F5D8-57D4-4201-87C0-0DF4163E8CAD}"/>
+    <hyperlink ref="A30" r:id="rId10" tooltip="الشركة السعودية للحوسبة السحابية" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D9%84%D9%84%D8%AD%D9%88%D8%B3%D8%A8%D8%A9_%D8%A7%D9%84%D8%B3%D8%AD%D8%A7%D8%A8%D9%8A%D8%A9" xr:uid="{C33419EB-956B-4F7C-833A-6E5B0F2CC450}"/>
+    <hyperlink ref="A31" r:id="rId11" tooltip="الشركة السعودية للخدمات الأرضية" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D9%84%D9%84%D8%AE%D8%AF%D9%85%D8%A7%D8%AA_%D8%A7%D9%84%D8%A3%D8%B1%D8%B6%D9%8A%D8%A9" xr:uid="{3F17ED45-86B6-4688-83FC-8A028A114D35}"/>
+    <hyperlink ref="A32" r:id="rId12" tooltip="الشركة السعودية للصناعات العسكرية" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D9%84%D9%84%D8%B5%D9%86%D8%A7%D8%B9%D8%A7%D8%AA_%D8%A7%D9%84%D8%B9%D8%B3%D9%83%D8%B1%D9%8A%D8%A9" xr:uid="{6A7A8756-422D-4985-BE85-6A49730FB9B4}"/>
+    <hyperlink ref="A33" r:id="rId13" tooltip="الشركة السعودية للكهرباء" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D9%84%D9%84%D9%83%D9%87%D8%B1%D8%A8%D8%A7%D8%A1" xr:uid="{80408E58-BDD3-4808-93B0-8EEAFDED8498}"/>
+    <hyperlink ref="A38" r:id="rId14" tooltip="الشركة الكيميائية السعودية" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D9%83%D9%8A%D9%85%D9%8A%D8%A7%D8%A6%D9%8A%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9" xr:uid="{D57A55E3-E139-4829-99AF-339E7A5436C3}"/>
+    <hyperlink ref="A39" r:id="rId15" tooltip="الشركة الوطنية السعودية للنقل البحري" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D9%88%D8%B7%D9%86%D9%8A%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D9%84%D9%84%D9%86%D9%82%D9%84_%D8%A7%D9%84%D8%A8%D8%AD%D8%B1%D9%8A" xr:uid="{A475F56C-BE0E-48D7-876B-6704A4E8D49F}"/>
+    <hyperlink ref="A40" r:id="rId16" tooltip="الشركة السعودية للصناعات العسكرية" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D9%84%D9%84%D8%B5%D9%86%D8%A7%D8%B9%D8%A7%D8%AA_%D8%A7%D9%84%D8%B9%D8%B3%D9%83%D8%B1%D9%8A%D8%A9" xr:uid="{449A16C1-ABB3-48E0-BB63-8801A6A84955}"/>
+    <hyperlink ref="A41" r:id="rId17" tooltip="دسر (شركة)" display="https://ar.wikipedia.org/wiki/%D8%AF%D8%B3%D8%B1_(%D8%B4%D8%B1%D9%83%D8%A9)" xr:uid="{E1273388-E827-4D5D-8B32-DB01A95B782C}"/>
+    <hyperlink ref="A42" r:id="rId18" tooltip="سابك" display="https://ar.wikipedia.org/wiki/%D8%B3%D8%A7%D8%A8%D9%83" xr:uid="{951A505D-CE4C-4090-8A1E-83178E2B42E7}"/>
+    <hyperlink ref="A43" r:id="rId19" tooltip="الخطوط السعودية" display="https://ar.wikipedia.org/wiki/%D8%A7%D9%84%D8%AE%D8%B7%D9%88%D8%B7_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9" xr:uid="{222EBE41-79E2-4422-BC90-275B67B87547}"/>
+    <hyperlink ref="A44" r:id="rId20" tooltip="شركة الخطوط السعودية لتنمية وتطوير العقار" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%AE%D8%B7%D9%88%D8%B7_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D9%84%D8%AA%D9%86%D9%85%D9%8A%D8%A9_%D9%88%D8%AA%D8%B7%D9%88%D9%8A%D8%B1_%D8%A7%D9%84%D8%B9%D9%82%D8%A7%D8%B1" xr:uid="{69988CCD-6FAB-4E2C-AD75-F5CB2C4E795B}"/>
+    <hyperlink ref="A45" r:id="rId21" tooltip="شركة الخطوط السعودية للتموين" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D8%A7%D9%84%D8%AE%D8%B7%D9%88%D8%B7_%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A%D8%A9_%D9%84%D9%84%D8%AA%D9%85%D9%88%D9%8A%D9%86" xr:uid="{0A970527-AD5C-4605-B9B0-6910AE8BAFD2}"/>
+    <hyperlink ref="A46" r:id="rId22" tooltip="شركة جدة للتنمية والتطوير العمراني" display="https://ar.wikipedia.org/wiki/%D8%B4%D8%B1%D9%83%D8%A9_%D8%AC%D8%AF%D8%A9_%D9%84%D9%84%D8%AA%D9%86%D9%85%D9%8A%D8%A9_%D9%88%D8%A7%D9%84%D8%AA%D8%B7%D9%88%D9%8A%D8%B1_%D8%A7%D9%84%D8%B9%D9%85%D8%B1%D8%A7%D9%86%D9%8A" xr:uid="{BC4DE0CC-09C4-4299-9211-DBEAF0DD3519}"/>
+    <hyperlink ref="A49" r:id="rId23" display="https://saudipedia.com/article/10617/%D8%A7%D9%82%D8%AA%D8%B5%D8%A7%D8%AF-%D9%88%D8%A3%D8%B9%D9%85%D8%A7%D9%84/%D9%85%D8%A7%D9%84/%D9%85%D8%B5%D8%B1%D9%81-%D8%A7%D9%84%D8%B1%D8%A7%D8%AC%D8%AD%D9%8A" xr:uid="{7C1B37BB-3D9B-4CC9-987A-E8AE82CBC70C}"/>
+    <hyperlink ref="A51" r:id="rId24" display="https://saudipedia.com/article/12514/%D8%A7%D9%82%D8%AA%D8%B5%D8%A7%D8%AF-%D9%88%D8%A3%D8%B9%D9%85%D8%A7%D9%84/%D9%85%D8%A7%D9%84/%D8%A7%D9%84%D8%A8%D9%86%D9%83-%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A-%D8%A7%D9%84%D9%81%D8%B1%D9%86%D8%B3%D9%8A" xr:uid="{8B325561-23AB-4C40-BF83-0A4C629ADCAB}"/>
+    <hyperlink ref="A52" r:id="rId25" display="https://saudipedia.com/article/12250/%D8%A7%D9%82%D8%AA%D8%B5%D8%A7%D8%AF-%D9%88%D8%A3%D8%B9%D9%85%D8%A7%D9%84/%D9%85%D8%A7%D9%84/%D8%A7%D9%84%D8%A8%D9%86%D9%83-%D8%A7%D9%84%D8%B3%D8%B9%D9%88%D8%AF%D9%8A-%D9%84%D9%84%D8%A7%D8%B3%D8%AA%D8%AB%D9%85%D8%A7%D8%B1" xr:uid="{C281F978-8370-474A-A28A-18E03778C8A7}"/>
+    <hyperlink ref="A54" r:id="rId26" display="https://saudipedia.com/article/12269/%D8%A7%D9%82%D8%AA%D8%B5%D8%A7%D8%AF-%D9%88%D8%A3%D8%B9%D9%85%D8%A7%D9%84/%D9%85%D8%A7%D9%84/%D8%A8%D9%86%D9%83-%D8%A7%D9%84%D8%A8%D9%84%D8%A7%D8%AF" xr:uid="{A45B96AF-1548-41F6-A348-9142A182A991}"/>
+    <hyperlink ref="A47" r:id="rId27" tooltip="طيران أديل" display="https://ar.wikipedia.org/wiki/%D8%B7%D9%8A%D8%B1%D8%A7%D9%86_%D8%A3%D8%AF%D9%8A%D9%84" xr:uid="{7640FDA8-9C36-4B1C-89DC-49EE73A343A6}"/>
+    <hyperlink ref="A155" r:id="rId28" display="https://www.my.gov.sa/wps/portal/snp/servicesDirectory/servicedetails/s9173" xr:uid="{93537CEE-718D-4FDB-8BCC-2BA74CD16023}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CEOs - data .xlsx
+++ b/CEOs - data .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://awqafinv-my.sharepoint.com/personal/salshehri_awqaf_com_sa/Documents/منشورات/CEOss/CEOss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="654" documentId="11_F3885B9803C23B35D8AA5315CE8E9C75F7ABBA22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0567DF5-6C44-4DB6-B7FD-4DC9AC4FA425}"/>
+  <xr:revisionPtr revIDLastSave="665" documentId="11_F3885B9803C23B35D8AA5315CE8E9C75F7ABBA22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44C296DD-5FF7-4CA6-A8EE-15CF60237AE6}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="571">
   <si>
     <t>الرئيس التنفيذي</t>
   </si>
@@ -2086,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M168"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:XFD2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3440,6 +3440,21 @@
       <c r="H33" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="I33" s="2">
+        <v>25</v>
+      </c>
+      <c r="J33" s="2">
+        <v>25</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
@@ -4336,6 +4351,12 @@
       <c r="K55" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="L55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
@@ -4778,6 +4799,12 @@
       <c r="K66" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="L66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
@@ -4854,6 +4881,9 @@
       <c r="K68" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="L68" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="M68" s="2" t="s">
         <v>248</v>
       </c>
@@ -4891,6 +4921,9 @@
       </c>
       <c r="K69" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>255</v>
